--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1474">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -3335,6 +3335,9 @@
   </si>
   <si>
     <t xml:space="preserve">REIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realzier</t>
   </si>
   <si>
     <t xml:space="preserve">Skiperoni</t>
@@ -4637,8 +4640,8 @@
   </sheetPr>
   <dimension ref="A1:N1259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A820" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E853" activeCellId="0" sqref="E853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21371,14 +21374,14 @@
       <c r="B852" s="10" t="s">
         <v>1105</v>
       </c>
-      <c r="C852" s="7" t="s">
-        <v>48</v>
+      <c r="C852" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D852" s="8" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="E852" s="8" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="F852" s="9"/>
     </row>
@@ -21390,13 +21393,13 @@
         <v>1106</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="D853" s="8" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="E853" s="8" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="F853" s="9"/>
     </row>
@@ -21408,13 +21411,13 @@
         <v>1107</v>
       </c>
       <c r="C854" s="7" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="D854" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E854" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F854" s="9"/>
     </row>
@@ -21426,13 +21429,13 @@
         <v>1108</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D855" s="8" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E855" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F855" s="9"/>
     </row>
@@ -21444,13 +21447,13 @@
         <v>1109</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D856" s="8" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="E856" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F856" s="9"/>
     </row>
@@ -21462,13 +21465,13 @@
         <v>1110</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="D857" s="8" t="s">
-        <v>152</v>
+        <v>336</v>
       </c>
       <c r="E857" s="8" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="F857" s="9"/>
     </row>
@@ -21480,13 +21483,13 @@
         <v>1111</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D858" s="8" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="E858" s="8" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="F858" s="9"/>
     </row>
@@ -21498,13 +21501,13 @@
         <v>1112</v>
       </c>
       <c r="C859" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D859" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E859" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F859" s="9"/>
     </row>
@@ -21516,13 +21519,13 @@
         <v>1113</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D860" s="8" t="s">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="E860" s="8" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="F860" s="9"/>
     </row>
@@ -21534,13 +21537,13 @@
         <v>1114</v>
       </c>
       <c r="C861" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D861" s="8" t="s">
-        <v>597</v>
+        <v>200</v>
       </c>
       <c r="E861" s="8" t="s">
-        <v>598</v>
+        <v>201</v>
       </c>
       <c r="F861" s="9"/>
     </row>
@@ -21552,13 +21555,13 @@
         <v>1115</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D862" s="8" t="s">
-        <v>17</v>
+        <v>597</v>
       </c>
       <c r="E862" s="8" t="s">
-        <v>18</v>
+        <v>598</v>
       </c>
       <c r="F862" s="9"/>
     </row>
@@ -21570,13 +21573,13 @@
         <v>1116</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D863" s="8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E863" s="8" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F863" s="9"/>
     </row>
@@ -21588,13 +21591,13 @@
         <v>1117</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D864" s="8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E864" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F864" s="9"/>
     </row>
@@ -21606,13 +21609,13 @@
         <v>1118</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="D865" s="8" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="E865" s="8" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F865" s="9"/>
     </row>
@@ -21624,13 +21627,13 @@
         <v>1119</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="D866" s="8" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E866" s="8" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F866" s="9"/>
     </row>
@@ -21642,13 +21645,13 @@
         <v>1120</v>
       </c>
       <c r="C867" s="7" t="s">
-        <v>636</v>
+        <v>246</v>
       </c>
       <c r="D867" s="8" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E867" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F867" s="9"/>
     </row>
@@ -21660,13 +21663,13 @@
         <v>1121</v>
       </c>
       <c r="C868" s="7" t="s">
-        <v>65</v>
+        <v>636</v>
       </c>
       <c r="D868" s="8" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E868" s="8" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F868" s="9"/>
     </row>
@@ -21678,13 +21681,13 @@
         <v>1122</v>
       </c>
       <c r="C869" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D869" s="8" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E869" s="8" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F869" s="9"/>
     </row>
@@ -21696,13 +21699,13 @@
         <v>1123</v>
       </c>
       <c r="C870" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D870" s="8" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
       <c r="E870" s="8" t="s">
-        <v>462</v>
+        <v>71</v>
       </c>
       <c r="F870" s="9"/>
     </row>
@@ -21717,10 +21720,10 @@
         <v>22</v>
       </c>
       <c r="D871" s="8" t="s">
-        <v>55</v>
+        <v>461</v>
       </c>
       <c r="E871" s="8" t="s">
-        <v>56</v>
+        <v>462</v>
       </c>
       <c r="F871" s="9"/>
     </row>
@@ -21732,7 +21735,7 @@
         <v>1125</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D872" s="8" t="s">
         <v>55</v>
@@ -21750,7 +21753,7 @@
         <v>1126</v>
       </c>
       <c r="C873" s="7" t="s">
-        <v>1127</v>
+        <v>7</v>
       </c>
       <c r="D873" s="8" t="s">
         <v>55</v>
@@ -21765,10 +21768,10 @@
         <v>873</v>
       </c>
       <c r="B874" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C874" s="7" t="s">
         <v>1128</v>
-      </c>
-      <c r="C874" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D874" s="8" t="s">
         <v>55</v>
@@ -21786,13 +21789,13 @@
         <v>1129</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D875" s="8" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="E875" s="8" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="F875" s="9"/>
     </row>
@@ -21804,13 +21807,13 @@
         <v>1130</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D876" s="8" t="s">
-        <v>597</v>
+        <v>216</v>
       </c>
       <c r="E876" s="8" t="s">
-        <v>598</v>
+        <v>217</v>
       </c>
       <c r="F876" s="9"/>
     </row>
@@ -21822,13 +21825,13 @@
         <v>1131</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D877" s="8" t="s">
-        <v>55</v>
+        <v>597</v>
       </c>
       <c r="E877" s="8" t="s">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="F877" s="9"/>
     </row>
@@ -21840,13 +21843,13 @@
         <v>1132</v>
       </c>
       <c r="C878" s="7" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="D878" s="8" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="E878" s="8" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="F878" s="9"/>
     </row>
@@ -21858,13 +21861,13 @@
         <v>1133</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D879" s="8" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="E879" s="8" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="F879" s="9"/>
     </row>
@@ -21876,7 +21879,7 @@
         <v>1134</v>
       </c>
       <c r="C880" s="7" t="s">
-        <v>1135</v>
+        <v>7</v>
       </c>
       <c r="D880" s="8" t="s">
         <v>55</v>
@@ -21891,10 +21894,10 @@
         <v>880</v>
       </c>
       <c r="B881" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C881" s="7" t="s">
         <v>1136</v>
-      </c>
-      <c r="C881" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D881" s="8" t="s">
         <v>55</v>
@@ -21912,13 +21915,13 @@
         <v>1137</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="D882" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E882" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F882" s="9"/>
     </row>
@@ -21930,7 +21933,7 @@
         <v>1138</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
       <c r="D883" s="8" t="s">
         <v>122</v>
@@ -21948,7 +21951,7 @@
         <v>1139</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="D884" s="8" t="s">
         <v>122</v>
@@ -21966,7 +21969,7 @@
         <v>1140</v>
       </c>
       <c r="C885" s="7" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="D885" s="8" t="s">
         <v>122</v>
@@ -21984,7 +21987,7 @@
         <v>1141</v>
       </c>
       <c r="C886" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D886" s="8" t="s">
         <v>122</v>
@@ -22002,7 +22005,7 @@
         <v>1142</v>
       </c>
       <c r="C887" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D887" s="8" t="s">
         <v>122</v>
@@ -22020,7 +22023,7 @@
         <v>1143</v>
       </c>
       <c r="C888" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D888" s="8" t="s">
         <v>122</v>
@@ -22038,13 +22041,13 @@
         <v>1144</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D889" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E889" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F889" s="9"/>
     </row>
@@ -22056,13 +22059,13 @@
         <v>1145</v>
       </c>
       <c r="C890" s="7" t="s">
-        <v>338</v>
+        <v>22</v>
       </c>
       <c r="D890" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E890" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F890" s="9"/>
     </row>
@@ -22074,13 +22077,13 @@
         <v>1146</v>
       </c>
       <c r="C891" s="7" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="D891" s="8" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="E891" s="8" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F891" s="9"/>
     </row>
@@ -22092,13 +22095,13 @@
         <v>1147</v>
       </c>
       <c r="C892" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D892" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E892" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F892" s="9"/>
     </row>
@@ -22110,7 +22113,7 @@
         <v>1148</v>
       </c>
       <c r="C893" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D893" s="8" t="s">
         <v>55</v>
@@ -22128,13 +22131,13 @@
         <v>1149</v>
       </c>
       <c r="C894" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D894" s="8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E894" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F894" s="9"/>
     </row>
@@ -22146,13 +22149,13 @@
         <v>1150</v>
       </c>
       <c r="C895" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D895" s="8" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="E895" s="8" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="F895" s="9"/>
     </row>
@@ -22164,7 +22167,7 @@
         <v>1151</v>
       </c>
       <c r="C896" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D896" s="8" t="s">
         <v>122</v>
@@ -22185,10 +22188,10 @@
         <v>7</v>
       </c>
       <c r="D897" s="8" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E897" s="8" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22202,10 +22205,10 @@
         <v>7</v>
       </c>
       <c r="D898" s="8" t="s">
-        <v>336</v>
+        <v>75</v>
       </c>
       <c r="E898" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F898" s="9"/>
     </row>
@@ -22220,10 +22223,10 @@
         <v>7</v>
       </c>
       <c r="D899" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E899" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F899" s="9"/>
     </row>
@@ -22235,13 +22238,13 @@
         <v>1155</v>
       </c>
       <c r="C900" s="7" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="D900" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E900" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F900" s="9"/>
     </row>
@@ -22253,13 +22256,13 @@
         <v>1156</v>
       </c>
       <c r="C901" s="7" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D901" s="8" t="s">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="E901" s="8" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="F901" s="9"/>
     </row>
@@ -22271,7 +22274,7 @@
         <v>1157</v>
       </c>
       <c r="C902" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D902" s="8" t="s">
         <v>200</v>
@@ -22289,13 +22292,13 @@
         <v>1158</v>
       </c>
       <c r="C903" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D903" s="8" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="E903" s="8" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="F903" s="9"/>
     </row>
@@ -22307,13 +22310,13 @@
         <v>1159</v>
       </c>
       <c r="C904" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D904" s="8" t="s">
-        <v>279</v>
+        <v>55</v>
       </c>
       <c r="E904" s="8" t="s">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="F904" s="9"/>
     </row>
@@ -22328,10 +22331,10 @@
         <v>22</v>
       </c>
       <c r="D905" s="8" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="E905" s="8" t="s">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="F905" s="9"/>
     </row>
@@ -22343,13 +22346,13 @@
         <v>1161</v>
       </c>
       <c r="C906" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D906" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E906" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F906" s="9"/>
     </row>
@@ -22361,7 +22364,7 @@
         <v>1162</v>
       </c>
       <c r="C907" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D907" s="8" t="s">
         <v>55</v>
@@ -22379,13 +22382,13 @@
         <v>1163</v>
       </c>
       <c r="C908" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D908" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E908" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F908" s="9"/>
     </row>
@@ -22397,13 +22400,13 @@
         <v>1164</v>
       </c>
       <c r="C909" s="7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D909" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E909" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F909" s="9"/>
     </row>
@@ -22415,13 +22418,13 @@
         <v>1165</v>
       </c>
       <c r="C910" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D910" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E910" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F910" s="9"/>
     </row>
@@ -22433,13 +22436,13 @@
         <v>1166</v>
       </c>
       <c r="C911" s="7" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D911" s="8" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="E911" s="8" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F911" s="9"/>
     </row>
@@ -22451,13 +22454,13 @@
         <v>1167</v>
       </c>
       <c r="C912" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D912" s="8" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="E912" s="8" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F912" s="9"/>
     </row>
@@ -22469,7 +22472,7 @@
         <v>1168</v>
       </c>
       <c r="C913" s="7" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="D913" s="8" t="s">
         <v>122</v>
@@ -22487,7 +22490,7 @@
         <v>1169</v>
       </c>
       <c r="C914" s="7" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="D914" s="8" t="s">
         <v>122</v>
@@ -22505,13 +22508,13 @@
         <v>1170</v>
       </c>
       <c r="C915" s="7" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D915" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E915" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F915" s="9"/>
     </row>
@@ -22523,7 +22526,7 @@
         <v>1171</v>
       </c>
       <c r="C916" s="7" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D916" s="8" t="s">
         <v>55</v>
@@ -22541,7 +22544,7 @@
         <v>1172</v>
       </c>
       <c r="C917" s="7" t="s">
-        <v>1173</v>
+        <v>7</v>
       </c>
       <c r="D917" s="8" t="s">
         <v>55</v>
@@ -22556,10 +22559,10 @@
         <v>917</v>
       </c>
       <c r="B918" s="10" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C918" s="7" t="s">
         <v>1174</v>
-      </c>
-      <c r="C918" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="D918" s="8" t="s">
         <v>55</v>
@@ -22577,7 +22580,7 @@
         <v>1175</v>
       </c>
       <c r="C919" s="7" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D919" s="8" t="s">
         <v>55</v>
@@ -22595,13 +22598,13 @@
         <v>1176</v>
       </c>
       <c r="C920" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D920" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E920" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F920" s="9"/>
     </row>
@@ -22613,13 +22616,13 @@
         <v>1177</v>
       </c>
       <c r="C921" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D921" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E921" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F921" s="9"/>
     </row>
@@ -22631,13 +22634,13 @@
         <v>1178</v>
       </c>
       <c r="C922" s="7" t="s">
-        <v>376</v>
+        <v>111</v>
       </c>
       <c r="D922" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E922" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F922" s="9"/>
     </row>
@@ -22649,13 +22652,13 @@
         <v>1179</v>
       </c>
       <c r="C923" s="7" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
       <c r="D923" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E923" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F923" s="9"/>
     </row>
@@ -22667,13 +22670,13 @@
         <v>1180</v>
       </c>
       <c r="C924" s="7" t="s">
-        <v>515</v>
+        <v>22</v>
       </c>
       <c r="D924" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E924" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F924" s="9"/>
     </row>
@@ -22685,13 +22688,13 @@
         <v>1181</v>
       </c>
       <c r="C925" s="7" t="s">
-        <v>296</v>
+        <v>515</v>
       </c>
       <c r="D925" s="8" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E925" s="8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F925" s="9"/>
     </row>
@@ -22703,13 +22706,13 @@
         <v>1182</v>
       </c>
       <c r="C926" s="7" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="D926" s="8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E926" s="8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F926" s="9"/>
     </row>
@@ -22721,13 +22724,13 @@
         <v>1183</v>
       </c>
       <c r="C927" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D927" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E927" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F927" s="9"/>
     </row>
@@ -22739,13 +22742,13 @@
         <v>1184</v>
       </c>
       <c r="C928" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D928" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E928" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F928" s="9"/>
     </row>
@@ -22757,13 +22760,13 @@
         <v>1185</v>
       </c>
       <c r="C929" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D929" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E929" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F929" s="9"/>
     </row>
@@ -22796,10 +22799,10 @@
         <v>7</v>
       </c>
       <c r="D931" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E931" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F931" s="9"/>
     </row>
@@ -22811,7 +22814,7 @@
         <v>1188</v>
       </c>
       <c r="C932" s="7" t="s">
-        <v>515</v>
+        <v>7</v>
       </c>
       <c r="D932" s="8" t="s">
         <v>55</v>
@@ -22829,7 +22832,7 @@
         <v>1189</v>
       </c>
       <c r="C933" s="7" t="s">
-        <v>73</v>
+        <v>515</v>
       </c>
       <c r="D933" s="8" t="s">
         <v>55</v>
@@ -22847,7 +22850,7 @@
         <v>1190</v>
       </c>
       <c r="C934" s="7" t="s">
-        <v>1173</v>
+        <v>73</v>
       </c>
       <c r="D934" s="8" t="s">
         <v>55</v>
@@ -22865,13 +22868,13 @@
         <v>1191</v>
       </c>
       <c r="C935" s="7" t="s">
-        <v>7</v>
+        <v>1174</v>
       </c>
       <c r="D935" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E935" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F935" s="9"/>
     </row>
@@ -22886,10 +22889,10 @@
         <v>7</v>
       </c>
       <c r="D936" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E936" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F936" s="9"/>
     </row>
@@ -22901,13 +22904,13 @@
         <v>1193</v>
       </c>
       <c r="C937" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D937" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E937" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F937" s="9"/>
     </row>
@@ -22919,7 +22922,7 @@
         <v>1194</v>
       </c>
       <c r="C938" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D938" s="8" t="s">
         <v>122</v>
@@ -22937,7 +22940,7 @@
         <v>1195</v>
       </c>
       <c r="C939" s="7" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="D939" s="8" t="s">
         <v>122</v>
@@ -22955,7 +22958,7 @@
         <v>1196</v>
       </c>
       <c r="C940" s="7" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="D940" s="8" t="s">
         <v>122</v>
@@ -22973,13 +22976,13 @@
         <v>1197</v>
       </c>
       <c r="C941" s="7" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D941" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E941" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F941" s="9"/>
     </row>
@@ -23009,7 +23012,7 @@
         <v>1199</v>
       </c>
       <c r="C943" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D943" s="8" t="s">
         <v>55</v>
@@ -23030,10 +23033,10 @@
         <v>22</v>
       </c>
       <c r="D944" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E944" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F944" s="9"/>
     </row>
@@ -23048,10 +23051,10 @@
         <v>22</v>
       </c>
       <c r="D945" s="8" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E945" s="8" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F945" s="9"/>
     </row>
@@ -23063,13 +23066,13 @@
         <v>1202</v>
       </c>
       <c r="C946" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D946" s="8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E946" s="8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F946" s="9"/>
     </row>
@@ -23081,13 +23084,13 @@
         <v>1203</v>
       </c>
       <c r="C947" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D947" s="8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E947" s="8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F947" s="9"/>
     </row>
@@ -23099,13 +23102,13 @@
         <v>1204</v>
       </c>
       <c r="C948" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D948" s="8" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="E948" s="8" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="F948" s="9"/>
     </row>
@@ -23117,13 +23120,13 @@
         <v>1205</v>
       </c>
       <c r="C949" s="7" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="D949" s="8" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="E949" s="8" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="F949" s="9"/>
     </row>
@@ -23135,13 +23138,13 @@
         <v>1206</v>
       </c>
       <c r="C950" s="7" t="s">
-        <v>1207</v>
+        <v>146</v>
       </c>
       <c r="D950" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E950" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F950" s="9"/>
     </row>
@@ -23150,16 +23153,16 @@
         <v>950</v>
       </c>
       <c r="B951" s="10" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C951" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="C951" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D951" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E951" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F951" s="9"/>
     </row>
@@ -23171,13 +23174,13 @@
         <v>1209</v>
       </c>
       <c r="C952" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D952" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E952" s="8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F952" s="9"/>
     </row>
@@ -23189,7 +23192,7 @@
         <v>1210</v>
       </c>
       <c r="C953" s="7" t="s">
-        <v>262</v>
+        <v>73</v>
       </c>
       <c r="D953" s="8" t="s">
         <v>55</v>
@@ -23207,13 +23210,13 @@
         <v>1211</v>
       </c>
       <c r="C954" s="7" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="D954" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E954" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F954" s="9"/>
     </row>
@@ -23225,7 +23228,7 @@
         <v>1212</v>
       </c>
       <c r="C955" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D955" s="8" t="s">
         <v>336</v>
@@ -23243,13 +23246,13 @@
         <v>1213</v>
       </c>
       <c r="C956" s="7" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="D956" s="8" t="s">
-        <v>108</v>
+        <v>336</v>
       </c>
       <c r="E956" s="8" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F956" s="9"/>
     </row>
@@ -23261,13 +23264,13 @@
         <v>1214</v>
       </c>
       <c r="C957" s="7" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="D957" s="8" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E957" s="8" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F957" s="9"/>
     </row>
@@ -23282,10 +23285,10 @@
         <v>73</v>
       </c>
       <c r="D958" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E958" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F958" s="9"/>
     </row>
@@ -23300,10 +23303,10 @@
         <v>73</v>
       </c>
       <c r="D959" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E959" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F959" s="9"/>
     </row>
@@ -23315,7 +23318,7 @@
         <v>1217</v>
       </c>
       <c r="C960" s="7" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="D960" s="8" t="s">
         <v>55</v>
@@ -23333,13 +23336,13 @@
         <v>1218</v>
       </c>
       <c r="C961" s="7" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="D961" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E961" s="8" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F961" s="9"/>
     </row>
@@ -23351,13 +23354,13 @@
         <v>1219</v>
       </c>
       <c r="C962" s="7" t="s">
-        <v>1028</v>
+        <v>7</v>
       </c>
       <c r="D962" s="8" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E962" s="8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="F962" s="9"/>
     </row>
@@ -23369,7 +23372,7 @@
         <v>1220</v>
       </c>
       <c r="C963" s="7" t="s">
-        <v>22</v>
+        <v>1028</v>
       </c>
       <c r="D963" s="8" t="s">
         <v>55</v>
@@ -23387,13 +23390,13 @@
         <v>1221</v>
       </c>
       <c r="C964" s="7" t="s">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="D964" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E964" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F964" s="9"/>
     </row>
@@ -23405,13 +23408,13 @@
         <v>1222</v>
       </c>
       <c r="C965" s="7" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="D965" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E965" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F965" s="9"/>
     </row>
@@ -23423,7 +23426,7 @@
         <v>1223</v>
       </c>
       <c r="C966" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D966" s="8" t="s">
         <v>336</v>
@@ -23441,13 +23444,13 @@
         <v>1224</v>
       </c>
       <c r="C967" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D967" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E967" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F967" s="9"/>
     </row>
@@ -23459,7 +23462,7 @@
         <v>1225</v>
       </c>
       <c r="C968" s="7" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="D968" s="8" t="s">
         <v>122</v>
@@ -23477,13 +23480,13 @@
         <v>1226</v>
       </c>
       <c r="C969" s="7" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="D969" s="8" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E969" s="8" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="F969" s="9"/>
     </row>
@@ -23495,13 +23498,13 @@
         <v>1227</v>
       </c>
       <c r="C970" s="7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D970" s="8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E970" s="8" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F970" s="9"/>
     </row>
@@ -23513,13 +23516,13 @@
         <v>1228</v>
       </c>
       <c r="C971" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D971" s="8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E971" s="8" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F971" s="9"/>
     </row>
@@ -23531,7 +23534,7 @@
         <v>1229</v>
       </c>
       <c r="C972" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D972" s="8" t="s">
         <v>55</v>
@@ -23549,13 +23552,13 @@
         <v>1230</v>
       </c>
       <c r="C973" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D973" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E973" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F973" s="9"/>
     </row>
@@ -23567,13 +23570,13 @@
         <v>1231</v>
       </c>
       <c r="C974" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D974" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E974" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F974" s="9"/>
     </row>
@@ -23585,13 +23588,13 @@
         <v>1232</v>
       </c>
       <c r="C975" s="7" t="s">
-        <v>352</v>
+        <v>26</v>
       </c>
       <c r="D975" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E975" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F975" s="9"/>
     </row>
@@ -23603,7 +23606,7 @@
         <v>1233</v>
       </c>
       <c r="C976" s="7" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="D976" s="8" t="s">
         <v>336</v>
@@ -23621,7 +23624,7 @@
         <v>1234</v>
       </c>
       <c r="C977" s="7" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D977" s="8" t="s">
         <v>336</v>
@@ -23639,13 +23642,13 @@
         <v>1235</v>
       </c>
       <c r="C978" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D978" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E978" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F978" s="9"/>
     </row>
@@ -23657,13 +23660,13 @@
         <v>1236</v>
       </c>
       <c r="C979" s="7" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="D979" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E979" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F979" s="9"/>
     </row>
@@ -23675,7 +23678,7 @@
         <v>1237</v>
       </c>
       <c r="C980" s="7" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D980" s="8" t="s">
         <v>55</v>
@@ -23693,13 +23696,13 @@
         <v>1238</v>
       </c>
       <c r="C981" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D981" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E981" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F981" s="9"/>
     </row>
@@ -23711,13 +23714,13 @@
         <v>1239</v>
       </c>
       <c r="C982" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D982" s="8" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="E982" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F982" s="9"/>
     </row>
@@ -23729,13 +23732,13 @@
         <v>1240</v>
       </c>
       <c r="C983" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D983" s="8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E983" s="8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F983" s="9"/>
     </row>
@@ -23747,7 +23750,7 @@
         <v>1241</v>
       </c>
       <c r="C984" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D984" s="8" t="s">
         <v>122</v>
@@ -23765,13 +23768,13 @@
         <v>1242</v>
       </c>
       <c r="C985" s="7" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="D985" s="8" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="E985" s="8" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="F985" s="9"/>
     </row>
@@ -23783,13 +23786,13 @@
         <v>1243</v>
       </c>
       <c r="C986" s="7" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="D986" s="8" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="E986" s="8" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F986" s="9"/>
     </row>
@@ -23801,13 +23804,13 @@
         <v>1244</v>
       </c>
       <c r="C987" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D987" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E987" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F987" s="9"/>
     </row>
@@ -23819,7 +23822,7 @@
         <v>1245</v>
       </c>
       <c r="C988" s="7" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="D988" s="8" t="s">
         <v>55</v>
@@ -23837,7 +23840,7 @@
         <v>1246</v>
       </c>
       <c r="C989" s="7" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="D989" s="8" t="s">
         <v>55</v>
@@ -23855,7 +23858,7 @@
         <v>1247</v>
       </c>
       <c r="C990" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D990" s="8" t="s">
         <v>55</v>
@@ -23873,13 +23876,13 @@
         <v>1248</v>
       </c>
       <c r="C991" s="7" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="D991" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E991" s="8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F991" s="9"/>
     </row>
@@ -23891,13 +23894,13 @@
         <v>1249</v>
       </c>
       <c r="C992" s="7" t="s">
-        <v>7</v>
+        <v>208</v>
       </c>
       <c r="D992" s="8" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E992" s="8" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F992" s="9"/>
     </row>
@@ -23909,13 +23912,13 @@
         <v>1250</v>
       </c>
       <c r="C993" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D993" s="8" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E993" s="8" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F993" s="9"/>
     </row>
@@ -23927,7 +23930,7 @@
         <v>1251</v>
       </c>
       <c r="C994" s="7" t="s">
-        <v>527</v>
+        <v>22</v>
       </c>
       <c r="D994" s="8" t="s">
         <v>55</v>
@@ -23945,13 +23948,13 @@
         <v>1252</v>
       </c>
       <c r="C995" s="7" t="s">
-        <v>133</v>
+        <v>527</v>
       </c>
       <c r="D995" s="8" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E995" s="8" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F995" s="9"/>
     </row>
@@ -23963,13 +23966,13 @@
         <v>1253</v>
       </c>
       <c r="C996" s="7" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E996" s="8" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23980,13 +23983,13 @@
         <v>1254</v>
       </c>
       <c r="C997" s="7" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="D997" s="8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E997" s="8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F997" s="9"/>
     </row>
@@ -23998,13 +24001,13 @@
         <v>1255</v>
       </c>
       <c r="C998" s="7" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D998" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E998" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F998" s="9"/>
     </row>
@@ -24016,13 +24019,13 @@
         <v>1256</v>
       </c>
       <c r="C999" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D999" s="8" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="E999" s="8" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="F999" s="9"/>
     </row>
@@ -24034,13 +24037,13 @@
         <v>1257</v>
       </c>
       <c r="C1000" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1000" s="8" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="E1000" s="8" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F1000" s="9"/>
     </row>
@@ -24052,7 +24055,7 @@
         <v>1258</v>
       </c>
       <c r="C1001" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D1001" s="8" t="s">
         <v>122</v>
@@ -24066,17 +24069,17 @@
       <c r="A1002" s="6" t="n">
         <v>1001</v>
       </c>
-      <c r="B1002" s="14" t="s">
+      <c r="B1002" s="10" t="s">
         <v>1259</v>
       </c>
       <c r="C1002" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D1002" s="8" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="E1002" s="8" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F1002" s="9"/>
     </row>
@@ -24084,17 +24087,17 @@
       <c r="A1003" s="6" t="n">
         <v>1002</v>
       </c>
-      <c r="B1003" s="10" t="s">
+      <c r="B1003" s="14" t="s">
         <v>1260</v>
       </c>
       <c r="C1003" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D1003" s="8" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="E1003" s="8" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="F1003" s="9"/>
     </row>
@@ -24106,13 +24109,13 @@
         <v>1261</v>
       </c>
       <c r="C1004" s="7" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D1004" s="8" t="s">
-        <v>624</v>
+        <v>173</v>
       </c>
       <c r="E1004" s="8" t="s">
-        <v>625</v>
+        <v>174</v>
       </c>
       <c r="F1004" s="9"/>
     </row>
@@ -24127,10 +24130,10 @@
         <v>7</v>
       </c>
       <c r="D1005" s="8" t="s">
-        <v>55</v>
+        <v>624</v>
       </c>
       <c r="E1005" s="8" t="s">
-        <v>56</v>
+        <v>625</v>
       </c>
       <c r="F1005" s="9"/>
     </row>
@@ -24142,13 +24145,13 @@
         <v>1263</v>
       </c>
       <c r="C1006" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1006" s="8" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E1006" s="8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F1006" s="9"/>
     </row>
@@ -24181,10 +24184,10 @@
         <v>22</v>
       </c>
       <c r="D1008" s="8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E1008" s="8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F1008" s="9"/>
     </row>
@@ -24196,13 +24199,13 @@
         <v>1266</v>
       </c>
       <c r="C1009" s="7" t="s">
-        <v>711</v>
+        <v>22</v>
       </c>
       <c r="D1009" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1009" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F1009" s="9"/>
     </row>
@@ -24214,7 +24217,7 @@
         <v>1267</v>
       </c>
       <c r="C1010" s="7" t="s">
-        <v>1268</v>
+        <v>711</v>
       </c>
       <c r="D1010" s="8" t="s">
         <v>55</v>
@@ -24229,16 +24232,16 @@
         <v>1010</v>
       </c>
       <c r="B1011" s="10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1011" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="C1011" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="D1011" s="8" t="s">
-        <v>922</v>
+        <v>55</v>
       </c>
       <c r="E1011" s="8" t="s">
-        <v>923</v>
+        <v>56</v>
       </c>
       <c r="F1011" s="9"/>
     </row>
@@ -24253,10 +24256,10 @@
         <v>73</v>
       </c>
       <c r="D1012" s="8" t="s">
-        <v>55</v>
+        <v>922</v>
       </c>
       <c r="E1012" s="8" t="s">
-        <v>56</v>
+        <v>923</v>
       </c>
       <c r="F1012" s="9"/>
     </row>
@@ -24268,7 +24271,7 @@
         <v>1271</v>
       </c>
       <c r="C1013" s="7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D1013" s="8" t="s">
         <v>55</v>
@@ -24286,13 +24289,13 @@
         <v>1272</v>
       </c>
       <c r="C1014" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D1014" s="8" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="E1014" s="8" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="F1014" s="9"/>
     </row>
@@ -24304,13 +24307,13 @@
         <v>1273</v>
       </c>
       <c r="C1015" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D1015" s="8" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="E1015" s="8" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24321,13 +24324,13 @@
         <v>1274</v>
       </c>
       <c r="C1016" s="7" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D1016" s="8" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="E1016" s="8" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="F1016" s="9"/>
     </row>
@@ -24339,13 +24342,13 @@
         <v>1275</v>
       </c>
       <c r="C1017" s="7" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D1017" s="8" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="E1017" s="8" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F1017" s="9"/>
     </row>
@@ -24357,7 +24360,7 @@
         <v>1276</v>
       </c>
       <c r="C1018" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D1018" s="8" t="s">
         <v>122</v>
@@ -24375,7 +24378,7 @@
         <v>1277</v>
       </c>
       <c r="C1019" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D1019" s="8" t="s">
         <v>122</v>
@@ -24393,13 +24396,13 @@
         <v>1278</v>
       </c>
       <c r="C1020" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1020" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1020" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24410,13 +24413,13 @@
         <v>1279</v>
       </c>
       <c r="C1021" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1021" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1021" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24447,10 +24450,10 @@
         <v>22</v>
       </c>
       <c r="D1023" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1023" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24461,13 +24464,13 @@
         <v>1282</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D1024" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1024" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24478,7 +24481,7 @@
         <v>1283</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D1025" s="8" t="s">
         <v>55</v>
@@ -24495,13 +24498,13 @@
         <v>1284</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1026" s="8" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="E1026" s="8" t="s">
-        <v>253</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24512,13 +24515,13 @@
         <v>1285</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D1027" s="8" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="E1027" s="8" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24529,13 +24532,13 @@
         <v>1286</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D1028" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1028" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24546,7 +24549,7 @@
         <v>1287</v>
       </c>
       <c r="C1029" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1029" s="8" t="s">
         <v>336</v>
@@ -24580,7 +24583,7 @@
         <v>1289</v>
       </c>
       <c r="C1031" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1031" s="8" t="s">
         <v>336</v>
@@ -24597,7 +24600,7 @@
         <v>1290</v>
       </c>
       <c r="C1032" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1032" s="8" t="s">
         <v>336</v>
@@ -24614,13 +24617,13 @@
         <v>1291</v>
       </c>
       <c r="C1033" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1033" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1033" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24631,13 +24634,13 @@
         <v>1292</v>
       </c>
       <c r="C1034" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1034" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1034" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24648,7 +24651,7 @@
         <v>1293</v>
       </c>
       <c r="C1035" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D1035" s="8" t="s">
         <v>336</v>
@@ -24665,7 +24668,7 @@
         <v>1294</v>
       </c>
       <c r="C1036" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D1036" s="8" t="s">
         <v>336</v>
@@ -24682,7 +24685,7 @@
         <v>1295</v>
       </c>
       <c r="C1037" s="7" t="s">
-        <v>1028</v>
+        <v>180</v>
       </c>
       <c r="D1037" s="8" t="s">
         <v>336</v>
@@ -24699,7 +24702,7 @@
         <v>1296</v>
       </c>
       <c r="C1038" s="7" t="s">
-        <v>121</v>
+        <v>1028</v>
       </c>
       <c r="D1038" s="8" t="s">
         <v>336</v>
@@ -24716,7 +24719,7 @@
         <v>1297</v>
       </c>
       <c r="C1039" s="7" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D1039" s="8" t="s">
         <v>336</v>
@@ -24733,7 +24736,7 @@
         <v>1298</v>
       </c>
       <c r="C1040" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1040" s="8" t="s">
         <v>336</v>
@@ -24750,13 +24753,13 @@
         <v>1299</v>
       </c>
       <c r="C1041" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D1041" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1041" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24767,13 +24770,13 @@
         <v>1300</v>
       </c>
       <c r="C1042" s="7" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="D1042" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1042" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24784,7 +24787,7 @@
         <v>1301</v>
       </c>
       <c r="C1043" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D1043" s="8" t="s">
         <v>336</v>
@@ -24801,7 +24804,7 @@
         <v>1302</v>
       </c>
       <c r="C1044" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D1044" s="8" t="s">
         <v>336</v>
@@ -24835,7 +24838,7 @@
         <v>1304</v>
       </c>
       <c r="C1046" s="7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D1046" s="8" t="s">
         <v>336</v>
@@ -24852,13 +24855,13 @@
         <v>1305</v>
       </c>
       <c r="C1047" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D1047" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1047" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24869,13 +24872,13 @@
         <v>1306</v>
       </c>
       <c r="C1048" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D1048" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1048" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24886,7 +24889,7 @@
         <v>1307</v>
       </c>
       <c r="C1049" s="7" t="s">
-        <v>1308</v>
+        <v>133</v>
       </c>
       <c r="D1049" s="8" t="s">
         <v>336</v>
@@ -24900,16 +24903,16 @@
         <v>1049</v>
       </c>
       <c r="B1050" s="10" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1050" s="7" t="s">
         <v>1309</v>
       </c>
-      <c r="C1050" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="D1050" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1050" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24920,13 +24923,13 @@
         <v>1310</v>
       </c>
       <c r="C1051" s="7" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="D1051" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1051" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24937,13 +24940,13 @@
         <v>1311</v>
       </c>
       <c r="C1052" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D1052" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1052" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24954,13 +24957,13 @@
         <v>1312</v>
       </c>
       <c r="C1053" s="7" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="D1053" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1053" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24971,13 +24974,13 @@
         <v>1313</v>
       </c>
       <c r="C1054" s="7" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="D1054" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1054" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24991,10 +24994,10 @@
         <v>7</v>
       </c>
       <c r="D1055" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1055" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25005,13 +25008,13 @@
         <v>1315</v>
       </c>
       <c r="C1056" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1056" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1056" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25039,7 +25042,7 @@
         <v>1317</v>
       </c>
       <c r="C1058" s="7" t="s">
-        <v>1318</v>
+        <v>73</v>
       </c>
       <c r="D1058" s="8" t="s">
         <v>336</v>
@@ -25053,16 +25056,16 @@
         <v>1058</v>
       </c>
       <c r="B1059" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1059" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="C1059" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D1059" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1059" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25073,13 +25076,13 @@
         <v>1320</v>
       </c>
       <c r="C1060" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="D1060" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1060" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25090,13 +25093,13 @@
         <v>1321</v>
       </c>
       <c r="C1061" s="7" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D1061" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1061" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25107,7 +25110,7 @@
         <v>1322</v>
       </c>
       <c r="C1062" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1062" s="8" t="s">
         <v>336</v>
@@ -25124,7 +25127,7 @@
         <v>1323</v>
       </c>
       <c r="C1063" s="7" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D1063" s="8" t="s">
         <v>336</v>
@@ -25141,13 +25144,13 @@
         <v>1324</v>
       </c>
       <c r="C1064" s="7" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="D1064" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1064" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25158,13 +25161,13 @@
         <v>1325</v>
       </c>
       <c r="C1065" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1065" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1065" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25175,7 +25178,7 @@
         <v>1326</v>
       </c>
       <c r="C1066" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D1066" s="8" t="s">
         <v>336</v>
@@ -25192,7 +25195,7 @@
         <v>1327</v>
       </c>
       <c r="C1067" s="7" t="s">
-        <v>695</v>
+        <v>144</v>
       </c>
       <c r="D1067" s="8" t="s">
         <v>336</v>
@@ -25209,7 +25212,7 @@
         <v>1328</v>
       </c>
       <c r="C1068" s="7" t="s">
-        <v>73</v>
+        <v>695</v>
       </c>
       <c r="D1068" s="8" t="s">
         <v>336</v>
@@ -25226,7 +25229,7 @@
         <v>1329</v>
       </c>
       <c r="C1069" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1069" s="8" t="s">
         <v>336</v>
@@ -25243,7 +25246,7 @@
         <v>1330</v>
       </c>
       <c r="C1070" s="7" t="s">
-        <v>1331</v>
+        <v>22</v>
       </c>
       <c r="D1070" s="8" t="s">
         <v>336</v>
@@ -25257,10 +25260,10 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="10" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1071" s="7" t="s">
         <v>1332</v>
-      </c>
-      <c r="C1071" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D1071" s="8" t="s">
         <v>336</v>
@@ -25277,13 +25280,13 @@
         <v>1333</v>
       </c>
       <c r="C1072" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D1072" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1072" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25294,13 +25297,13 @@
         <v>1334</v>
       </c>
       <c r="C1073" s="7" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D1073" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1073" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25311,7 +25314,7 @@
         <v>1335</v>
       </c>
       <c r="C1074" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D1074" s="8" t="s">
         <v>336</v>
@@ -25328,13 +25331,13 @@
         <v>1336</v>
       </c>
       <c r="C1075" s="7" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D1075" s="8" t="s">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="E1075" s="8" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25345,13 +25348,13 @@
         <v>1337</v>
       </c>
       <c r="C1076" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1076" s="8" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E1076" s="8" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25379,13 +25382,13 @@
         <v>1339</v>
       </c>
       <c r="C1078" s="7" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="D1078" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1078" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25396,13 +25399,13 @@
         <v>1340</v>
       </c>
       <c r="C1079" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="D1079" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1079" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25413,13 +25416,13 @@
         <v>1341</v>
       </c>
       <c r="C1080" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1080" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1080" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25430,13 +25433,13 @@
         <v>1342</v>
       </c>
       <c r="C1081" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D1081" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1081" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25447,7 +25450,7 @@
         <v>1343</v>
       </c>
       <c r="C1082" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D1082" s="8" t="s">
         <v>336</v>
@@ -25464,7 +25467,7 @@
         <v>1344</v>
       </c>
       <c r="C1083" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D1083" s="8" t="s">
         <v>336</v>
@@ -25481,7 +25484,7 @@
         <v>1345</v>
       </c>
       <c r="C1084" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D1084" s="8" t="s">
         <v>336</v>
@@ -25498,7 +25501,7 @@
         <v>1346</v>
       </c>
       <c r="C1085" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1085" s="8" t="s">
         <v>336</v>
@@ -25532,13 +25535,13 @@
         <v>1348</v>
       </c>
       <c r="C1087" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D1087" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1087" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25549,13 +25552,13 @@
         <v>1349</v>
       </c>
       <c r="C1088" s="7" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D1088" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1088" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25566,13 +25569,13 @@
         <v>1350</v>
       </c>
       <c r="C1089" s="7" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D1089" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1089" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25583,7 +25586,7 @@
         <v>1351</v>
       </c>
       <c r="C1090" s="7" t="s">
-        <v>990</v>
+        <v>73</v>
       </c>
       <c r="D1090" s="8" t="s">
         <v>336</v>
@@ -25600,13 +25603,13 @@
         <v>1352</v>
       </c>
       <c r="C1091" s="7" t="s">
-        <v>144</v>
+        <v>990</v>
       </c>
       <c r="D1091" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1091" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25617,13 +25620,13 @@
         <v>1353</v>
       </c>
       <c r="C1092" s="7" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="D1092" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1092" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25634,13 +25637,13 @@
         <v>1354</v>
       </c>
       <c r="C1093" s="7" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="D1093" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1093" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25651,13 +25654,13 @@
         <v>1355</v>
       </c>
       <c r="C1094" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="D1094" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1094" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25671,10 +25674,10 @@
         <v>22</v>
       </c>
       <c r="D1095" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1095" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25685,7 +25688,7 @@
         <v>1357</v>
       </c>
       <c r="C1096" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1096" s="8" t="s">
         <v>336</v>
@@ -25702,7 +25705,7 @@
         <v>1358</v>
       </c>
       <c r="C1097" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1097" s="8" t="s">
         <v>336</v>
@@ -25719,7 +25722,7 @@
         <v>1359</v>
       </c>
       <c r="C1098" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1098" s="8" t="s">
         <v>336</v>
@@ -25736,7 +25739,7 @@
         <v>1360</v>
       </c>
       <c r="C1099" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1099" s="8" t="s">
         <v>336</v>
@@ -25753,7 +25756,7 @@
         <v>1361</v>
       </c>
       <c r="C1100" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1100" s="8" t="s">
         <v>336</v>
@@ -25770,7 +25773,7 @@
         <v>1362</v>
       </c>
       <c r="C1101" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D1101" s="8" t="s">
         <v>336</v>
@@ -25804,13 +25807,13 @@
         <v>1364</v>
       </c>
       <c r="C1103" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D1103" s="8" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E1103" s="8" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25821,13 +25824,13 @@
         <v>1365</v>
       </c>
       <c r="C1104" s="7" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="D1104" s="8" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="E1104" s="8" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25838,13 +25841,13 @@
         <v>1366</v>
       </c>
       <c r="C1105" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1105" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1105" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25858,10 +25861,10 @@
         <v>7</v>
       </c>
       <c r="D1106" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1106" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25872,13 +25875,13 @@
         <v>1368</v>
       </c>
       <c r="C1107" s="7" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D1107" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1107" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25889,13 +25892,13 @@
         <v>1369</v>
       </c>
       <c r="C1108" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D1108" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1108" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25909,10 +25912,10 @@
         <v>22</v>
       </c>
       <c r="D1109" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1109" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25923,13 +25926,13 @@
         <v>1371</v>
       </c>
       <c r="C1110" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1110" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1110" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25940,13 +25943,13 @@
         <v>1372</v>
       </c>
       <c r="C1111" s="7" t="s">
-        <v>636</v>
+        <v>26</v>
       </c>
       <c r="D1111" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1111" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25957,13 +25960,13 @@
         <v>1373</v>
       </c>
       <c r="C1112" s="7" t="s">
-        <v>22</v>
+        <v>636</v>
       </c>
       <c r="D1112" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1112" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25991,7 +25994,7 @@
         <v>1375</v>
       </c>
       <c r="C1114" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1114" s="8" t="s">
         <v>336</v>
@@ -26008,7 +26011,7 @@
         <v>1376</v>
       </c>
       <c r="C1115" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1115" s="8" t="s">
         <v>336</v>
@@ -26025,13 +26028,13 @@
         <v>1377</v>
       </c>
       <c r="C1116" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1116" s="8" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E1116" s="8" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26045,10 +26048,10 @@
         <v>7</v>
       </c>
       <c r="D1117" s="8" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="E1117" s="8" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26059,7 +26062,7 @@
         <v>1379</v>
       </c>
       <c r="C1118" s="7" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D1118" s="8" t="s">
         <v>336</v>
@@ -26076,13 +26079,13 @@
         <v>1380</v>
       </c>
       <c r="C1119" s="7" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="D1119" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1119" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26093,13 +26096,13 @@
         <v>1381</v>
       </c>
       <c r="C1120" s="7" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="D1120" s="8" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
       <c r="E1120" s="8" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26110,13 +26113,13 @@
         <v>1382</v>
       </c>
       <c r="C1121" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1121" s="8" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="E1121" s="8" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26144,7 +26147,7 @@
         <v>1384</v>
       </c>
       <c r="C1123" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1123" s="8" t="s">
         <v>336</v>
@@ -26161,7 +26164,7 @@
         <v>1385</v>
       </c>
       <c r="C1124" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1124" s="8" t="s">
         <v>336</v>
@@ -26178,7 +26181,7 @@
         <v>1386</v>
       </c>
       <c r="C1125" s="7" t="s">
-        <v>515</v>
+        <v>7</v>
       </c>
       <c r="D1125" s="8" t="s">
         <v>336</v>
@@ -26195,13 +26198,13 @@
         <v>1387</v>
       </c>
       <c r="C1126" s="7" t="s">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="D1126" s="8" t="s">
-        <v>778</v>
+        <v>336</v>
       </c>
       <c r="E1126" s="8" t="s">
-        <v>779</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26212,13 +26215,13 @@
         <v>1388</v>
       </c>
       <c r="C1127" s="7" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
       <c r="D1127" s="8" t="s">
-        <v>55</v>
+        <v>778</v>
       </c>
       <c r="E1127" s="8" t="s">
-        <v>56</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26229,7 +26232,7 @@
         <v>1389</v>
       </c>
       <c r="C1128" s="7" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="D1128" s="8" t="s">
         <v>55</v>
@@ -26246,13 +26249,13 @@
         <v>1390</v>
       </c>
       <c r="C1129" s="7" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D1129" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1129" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26263,7 +26266,7 @@
         <v>1391</v>
       </c>
       <c r="C1130" s="7" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D1130" s="8" t="s">
         <v>336</v>
@@ -26280,13 +26283,13 @@
         <v>1392</v>
       </c>
       <c r="C1131" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D1131" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1131" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26297,13 +26300,13 @@
         <v>1393</v>
       </c>
       <c r="C1132" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D1132" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1132" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26314,13 +26317,13 @@
         <v>1394</v>
       </c>
       <c r="C1133" s="7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="D1133" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1133" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26331,13 +26334,13 @@
         <v>1395</v>
       </c>
       <c r="C1134" s="7" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="D1134" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1134" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26348,7 +26351,7 @@
         <v>1396</v>
       </c>
       <c r="C1135" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="D1135" s="8" t="s">
         <v>336</v>
@@ -26365,7 +26368,7 @@
         <v>1397</v>
       </c>
       <c r="C1136" s="7" t="s">
-        <v>515</v>
+        <v>22</v>
       </c>
       <c r="D1136" s="8" t="s">
         <v>336</v>
@@ -26382,7 +26385,7 @@
         <v>1398</v>
       </c>
       <c r="C1137" s="7" t="s">
-        <v>73</v>
+        <v>515</v>
       </c>
       <c r="D1137" s="8" t="s">
         <v>336</v>
@@ -26399,13 +26402,13 @@
         <v>1399</v>
       </c>
       <c r="C1138" s="7" t="s">
-        <v>1400</v>
+        <v>73</v>
       </c>
       <c r="D1138" s="8" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="E1138" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26413,16 +26416,16 @@
         <v>1138</v>
       </c>
       <c r="B1139" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1139" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="C1139" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="D1139" s="8" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="E1139" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26433,7 +26436,7 @@
         <v>1402</v>
       </c>
       <c r="C1140" s="7" t="s">
-        <v>475</v>
+        <v>101</v>
       </c>
       <c r="D1140" s="8" t="s">
         <v>336</v>
@@ -26450,13 +26453,13 @@
         <v>1403</v>
       </c>
       <c r="C1141" s="7" t="s">
-        <v>88</v>
+        <v>475</v>
       </c>
       <c r="D1141" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1141" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26467,13 +26470,13 @@
         <v>1404</v>
       </c>
       <c r="C1142" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D1142" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1142" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26484,7 +26487,7 @@
         <v>1405</v>
       </c>
       <c r="C1143" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1143" s="8" t="s">
         <v>336</v>
@@ -26501,7 +26504,7 @@
         <v>1406</v>
       </c>
       <c r="C1144" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1144" s="8" t="s">
         <v>336</v>
@@ -26518,13 +26521,13 @@
         <v>1407</v>
       </c>
       <c r="C1145" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1145" s="8" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="E1145" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26535,13 +26538,13 @@
         <v>1408</v>
       </c>
       <c r="C1146" s="7" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D1146" s="8" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="E1146" s="8" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26552,7 +26555,7 @@
         <v>1409</v>
       </c>
       <c r="C1147" s="7" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="D1147" s="8" t="s">
         <v>336</v>
@@ -26569,7 +26572,7 @@
         <v>1410</v>
       </c>
       <c r="C1148" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="D1148" s="8" t="s">
         <v>336</v>
@@ -26586,7 +26589,7 @@
         <v>1411</v>
       </c>
       <c r="C1149" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1149" s="8" t="s">
         <v>336</v>
@@ -26603,7 +26606,7 @@
         <v>1412</v>
       </c>
       <c r="C1150" s="7" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="D1150" s="8" t="s">
         <v>336</v>
@@ -26620,7 +26623,7 @@
         <v>1413</v>
       </c>
       <c r="C1151" s="7" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="D1151" s="8" t="s">
         <v>336</v>
@@ -26637,7 +26640,7 @@
         <v>1414</v>
       </c>
       <c r="C1152" s="7" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D1152" s="8" t="s">
         <v>336</v>
@@ -26654,7 +26657,7 @@
         <v>1415</v>
       </c>
       <c r="C1153" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1153" s="8" t="s">
         <v>336</v>
@@ -26671,7 +26674,7 @@
         <v>1416</v>
       </c>
       <c r="C1154" s="7" t="s">
-        <v>1417</v>
+        <v>22</v>
       </c>
       <c r="D1154" s="8" t="s">
         <v>336</v>
@@ -26685,10 +26688,10 @@
         <v>1154</v>
       </c>
       <c r="B1155" s="10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1155" s="7" t="s">
         <v>1418</v>
-      </c>
-      <c r="C1155" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D1155" s="8" t="s">
         <v>336</v>
@@ -26705,7 +26708,7 @@
         <v>1419</v>
       </c>
       <c r="C1156" s="7" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="D1156" s="8" t="s">
         <v>336</v>
@@ -26722,7 +26725,7 @@
         <v>1420</v>
       </c>
       <c r="C1157" s="7" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="D1157" s="8" t="s">
         <v>336</v>
@@ -26739,13 +26742,13 @@
         <v>1421</v>
       </c>
       <c r="C1158" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1158" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1158" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26756,7 +26759,7 @@
         <v>1422</v>
       </c>
       <c r="C1159" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1159" s="8" t="s">
         <v>55</v>
@@ -26773,13 +26776,13 @@
         <v>1423</v>
       </c>
       <c r="C1160" s="7" t="s">
-        <v>1135</v>
+        <v>22</v>
       </c>
       <c r="D1160" s="8" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E1160" s="8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26790,13 +26793,13 @@
         <v>1424</v>
       </c>
       <c r="C1161" s="7" t="s">
-        <v>83</v>
+        <v>1136</v>
       </c>
       <c r="D1161" s="8" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E1161" s="8" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26807,13 +26810,13 @@
         <v>1425</v>
       </c>
       <c r="C1162" s="7" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D1162" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1162" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26824,7 +26827,7 @@
         <v>1426</v>
       </c>
       <c r="C1163" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1163" s="8" t="s">
         <v>336</v>
@@ -26841,13 +26844,13 @@
         <v>1427</v>
       </c>
       <c r="C1164" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D1164" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1164" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26858,13 +26861,13 @@
         <v>1428</v>
       </c>
       <c r="C1165" s="7" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D1165" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1165" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26875,7 +26878,7 @@
         <v>1429</v>
       </c>
       <c r="C1166" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1166" s="8" t="s">
         <v>336</v>
@@ -26892,13 +26895,13 @@
         <v>1430</v>
       </c>
       <c r="C1167" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D1167" s="8" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E1167" s="8" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26909,13 +26912,13 @@
         <v>1431</v>
       </c>
       <c r="C1168" s="7" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D1168" s="8" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="E1168" s="8" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26926,7 +26929,7 @@
         <v>1432</v>
       </c>
       <c r="C1169" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1169" s="8" t="s">
         <v>336</v>
@@ -26946,10 +26949,10 @@
         <v>22</v>
       </c>
       <c r="D1170" s="8" t="s">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="E1170" s="8" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26960,13 +26963,13 @@
         <v>1434</v>
       </c>
       <c r="C1171" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D1171" s="8" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E1171" s="8" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26977,7 +26980,7 @@
         <v>1435</v>
       </c>
       <c r="C1172" s="7" t="s">
-        <v>515</v>
+        <v>180</v>
       </c>
       <c r="D1172" s="8" t="s">
         <v>336</v>
@@ -26994,13 +26997,13 @@
         <v>1436</v>
       </c>
       <c r="C1173" s="7" t="s">
-        <v>101</v>
+        <v>515</v>
       </c>
       <c r="D1173" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1173" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27011,13 +27014,13 @@
         <v>1437</v>
       </c>
       <c r="C1174" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D1174" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1174" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27028,7 +27031,7 @@
         <v>1438</v>
       </c>
       <c r="C1175" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1175" s="8" t="s">
         <v>336</v>
@@ -27045,7 +27048,7 @@
         <v>1439</v>
       </c>
       <c r="C1176" s="7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D1176" s="8" t="s">
         <v>336</v>
@@ -27062,7 +27065,7 @@
         <v>1440</v>
       </c>
       <c r="C1177" s="7" t="s">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="D1177" s="8" t="s">
         <v>336</v>
@@ -27079,7 +27082,7 @@
         <v>1441</v>
       </c>
       <c r="C1178" s="7" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D1178" s="8" t="s">
         <v>336</v>
@@ -27113,13 +27116,13 @@
         <v>1443</v>
       </c>
       <c r="C1180" s="7" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D1180" s="8" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="E1180" s="8" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27130,13 +27133,13 @@
         <v>1444</v>
       </c>
       <c r="C1181" s="7" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D1181" s="8" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="E1181" s="8" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27147,7 +27150,7 @@
         <v>1445</v>
       </c>
       <c r="C1182" s="7" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D1182" s="8" t="s">
         <v>336</v>
@@ -27164,7 +27167,7 @@
         <v>1446</v>
       </c>
       <c r="C1183" s="7" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D1183" s="8" t="s">
         <v>336</v>
@@ -27181,7 +27184,7 @@
         <v>1447</v>
       </c>
       <c r="C1184" s="7" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D1184" s="8" t="s">
         <v>336</v>
@@ -27198,7 +27201,7 @@
         <v>1448</v>
       </c>
       <c r="C1185" s="7" t="s">
-        <v>618</v>
+        <v>73</v>
       </c>
       <c r="D1185" s="8" t="s">
         <v>336</v>
@@ -27215,7 +27218,7 @@
         <v>1449</v>
       </c>
       <c r="C1186" s="7" t="s">
-        <v>7</v>
+        <v>618</v>
       </c>
       <c r="D1186" s="8" t="s">
         <v>336</v>
@@ -27249,7 +27252,7 @@
         <v>1451</v>
       </c>
       <c r="C1188" s="7" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D1188" s="8" t="s">
         <v>336</v>
@@ -27266,7 +27269,7 @@
         <v>1452</v>
       </c>
       <c r="C1189" s="7" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D1189" s="8" t="s">
         <v>336</v>
@@ -27283,7 +27286,7 @@
         <v>1453</v>
       </c>
       <c r="C1190" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1190" s="8" t="s">
         <v>336</v>
@@ -27317,7 +27320,7 @@
         <v>1455</v>
       </c>
       <c r="C1192" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1192" s="8" t="s">
         <v>336</v>
@@ -27334,13 +27337,13 @@
         <v>1456</v>
       </c>
       <c r="C1193" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1193" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1193" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27351,13 +27354,13 @@
         <v>1457</v>
       </c>
       <c r="C1194" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1194" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1194" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27368,13 +27371,13 @@
         <v>1458</v>
       </c>
       <c r="C1195" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1195" s="8" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="E1195" s="8" t="s">
-        <v>291</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27388,10 +27391,10 @@
         <v>7</v>
       </c>
       <c r="D1196" s="8" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="E1196" s="8" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27402,13 +27405,13 @@
         <v>1460</v>
       </c>
       <c r="C1197" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1197" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1197" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27419,13 +27422,13 @@
         <v>1461</v>
       </c>
       <c r="C1198" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1198" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1198" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27436,7 +27439,7 @@
         <v>1462</v>
       </c>
       <c r="C1199" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D1199" s="8" t="s">
         <v>336</v>
@@ -27453,13 +27456,13 @@
         <v>1463</v>
       </c>
       <c r="C1200" s="7" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="D1200" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1200" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27470,13 +27473,13 @@
         <v>1464</v>
       </c>
       <c r="C1201" s="7" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D1201" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1201" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27487,7 +27490,7 @@
         <v>1465</v>
       </c>
       <c r="C1202" s="7" t="s">
-        <v>1466</v>
+        <v>73</v>
       </c>
       <c r="D1202" s="8" t="s">
         <v>336</v>
@@ -27501,10 +27504,10 @@
         <v>1202</v>
       </c>
       <c r="B1203" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C1203" s="7" t="s">
         <v>1467</v>
-      </c>
-      <c r="C1203" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D1203" s="8" t="s">
         <v>336</v>
@@ -27521,7 +27524,7 @@
         <v>1468</v>
       </c>
       <c r="C1204" s="7" t="s">
-        <v>636</v>
+        <v>22</v>
       </c>
       <c r="D1204" s="8" t="s">
         <v>336</v>
@@ -27538,7 +27541,7 @@
         <v>1469</v>
       </c>
       <c r="C1205" s="7" t="s">
-        <v>7</v>
+        <v>636</v>
       </c>
       <c r="D1205" s="8" t="s">
         <v>336</v>
@@ -27555,7 +27558,7 @@
         <v>1470</v>
       </c>
       <c r="C1206" s="7" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="D1206" s="8" t="s">
         <v>336</v>
@@ -27572,7 +27575,7 @@
         <v>1471</v>
       </c>
       <c r="C1207" s="7" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="D1207" s="8" t="s">
         <v>336</v>
@@ -27589,12 +27592,29 @@
         <v>1472</v>
       </c>
       <c r="C1208" s="7" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D1208" s="8" t="s">
         <v>336</v>
       </c>
       <c r="E1208" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="6" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1209" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C1209" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1209" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1209" s="8" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4965" uniqueCount="1476">
   <si>
     <t xml:space="preserve">Place</t>
   </si>
@@ -3838,6 +3838,9 @@
     <t xml:space="preserve">Nannal</t>
   </si>
   <si>
+    <t xml:space="preserve">Witless</t>
+  </si>
+  <si>
     <t xml:space="preserve">destructionvibe</t>
   </si>
   <si>
@@ -4037,6 +4040,9 @@
   </si>
   <si>
     <t xml:space="preserve">BesosKurwica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RowlinStudios</t>
   </si>
   <si>
     <t xml:space="preserve">Kotlecior</t>
@@ -4640,8 +4646,8 @@
   </sheetPr>
   <dimension ref="A1:N1259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A820" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E853" activeCellId="0" sqref="E853"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1076" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1080" activeCellId="0" sqref="E1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24289,13 +24295,13 @@
         <v>1272</v>
       </c>
       <c r="C1014" s="7" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="D1014" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1014" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F1014" s="9"/>
     </row>
@@ -24307,13 +24313,13 @@
         <v>1273</v>
       </c>
       <c r="C1015" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D1015" s="8" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="E1015" s="8" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24324,13 +24330,13 @@
         <v>1274</v>
       </c>
       <c r="C1016" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D1016" s="8" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="E1016" s="8" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="F1016" s="9"/>
     </row>
@@ -24342,13 +24348,13 @@
         <v>1275</v>
       </c>
       <c r="C1017" s="7" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D1017" s="8" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="E1017" s="8" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="F1017" s="9"/>
     </row>
@@ -24360,13 +24366,13 @@
         <v>1276</v>
       </c>
       <c r="C1018" s="7" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D1018" s="8" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="E1018" s="8" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="F1018" s="9"/>
     </row>
@@ -24378,7 +24384,7 @@
         <v>1277</v>
       </c>
       <c r="C1019" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D1019" s="8" t="s">
         <v>122</v>
@@ -24396,7 +24402,7 @@
         <v>1278</v>
       </c>
       <c r="C1020" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D1020" s="8" t="s">
         <v>122</v>
@@ -24413,13 +24419,13 @@
         <v>1279</v>
       </c>
       <c r="C1021" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1021" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1021" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24430,13 +24436,13 @@
         <v>1280</v>
       </c>
       <c r="C1022" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1022" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1022" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24467,10 +24473,10 @@
         <v>22</v>
       </c>
       <c r="D1024" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1024" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24481,13 +24487,13 @@
         <v>1283</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D1025" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1025" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24498,7 +24504,7 @@
         <v>1284</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D1026" s="8" t="s">
         <v>55</v>
@@ -24515,13 +24521,13 @@
         <v>1285</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1027" s="8" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="E1027" s="8" t="s">
-        <v>253</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24532,13 +24538,13 @@
         <v>1286</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D1028" s="8" t="s">
-        <v>55</v>
+        <v>252</v>
       </c>
       <c r="E1028" s="8" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24549,13 +24555,13 @@
         <v>1287</v>
       </c>
       <c r="C1029" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D1029" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1029" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24566,7 +24572,7 @@
         <v>1288</v>
       </c>
       <c r="C1030" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1030" s="8" t="s">
         <v>336</v>
@@ -24600,7 +24606,7 @@
         <v>1290</v>
       </c>
       <c r="C1032" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1032" s="8" t="s">
         <v>336</v>
@@ -24617,7 +24623,7 @@
         <v>1291</v>
       </c>
       <c r="C1033" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1033" s="8" t="s">
         <v>336</v>
@@ -24634,13 +24640,13 @@
         <v>1292</v>
       </c>
       <c r="C1034" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1034" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1034" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24651,13 +24657,13 @@
         <v>1293</v>
       </c>
       <c r="C1035" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1035" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1035" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24668,7 +24674,7 @@
         <v>1294</v>
       </c>
       <c r="C1036" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D1036" s="8" t="s">
         <v>336</v>
@@ -24685,7 +24691,7 @@
         <v>1295</v>
       </c>
       <c r="C1037" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D1037" s="8" t="s">
         <v>336</v>
@@ -24702,7 +24708,7 @@
         <v>1296</v>
       </c>
       <c r="C1038" s="7" t="s">
-        <v>1028</v>
+        <v>180</v>
       </c>
       <c r="D1038" s="8" t="s">
         <v>336</v>
@@ -24719,7 +24725,7 @@
         <v>1297</v>
       </c>
       <c r="C1039" s="7" t="s">
-        <v>121</v>
+        <v>1028</v>
       </c>
       <c r="D1039" s="8" t="s">
         <v>336</v>
@@ -24736,7 +24742,7 @@
         <v>1298</v>
       </c>
       <c r="C1040" s="7" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D1040" s="8" t="s">
         <v>336</v>
@@ -24753,7 +24759,7 @@
         <v>1299</v>
       </c>
       <c r="C1041" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1041" s="8" t="s">
         <v>336</v>
@@ -24770,13 +24776,13 @@
         <v>1300</v>
       </c>
       <c r="C1042" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D1042" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1042" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24787,13 +24793,13 @@
         <v>1301</v>
       </c>
       <c r="C1043" s="7" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="D1043" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1043" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24804,7 +24810,7 @@
         <v>1302</v>
       </c>
       <c r="C1044" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="D1044" s="8" t="s">
         <v>336</v>
@@ -24821,7 +24827,7 @@
         <v>1303</v>
       </c>
       <c r="C1045" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D1045" s="8" t="s">
         <v>336</v>
@@ -24855,7 +24861,7 @@
         <v>1305</v>
       </c>
       <c r="C1047" s="7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D1047" s="8" t="s">
         <v>336</v>
@@ -24872,13 +24878,13 @@
         <v>1306</v>
       </c>
       <c r="C1048" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D1048" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1048" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24889,13 +24895,13 @@
         <v>1307</v>
       </c>
       <c r="C1049" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D1049" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1049" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24906,7 +24912,7 @@
         <v>1308</v>
       </c>
       <c r="C1050" s="7" t="s">
-        <v>1309</v>
+        <v>133</v>
       </c>
       <c r="D1050" s="8" t="s">
         <v>336</v>
@@ -24920,16 +24926,16 @@
         <v>1050</v>
       </c>
       <c r="B1051" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1051" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="C1051" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="D1051" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1051" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24940,13 +24946,13 @@
         <v>1311</v>
       </c>
       <c r="C1052" s="7" t="s">
-        <v>22</v>
+        <v>527</v>
       </c>
       <c r="D1052" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1052" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24957,13 +24963,13 @@
         <v>1312</v>
       </c>
       <c r="C1053" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="D1053" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1053" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24974,13 +24980,13 @@
         <v>1313</v>
       </c>
       <c r="C1054" s="7" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c r="D1054" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1054" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24991,13 +24997,13 @@
         <v>1314</v>
       </c>
       <c r="C1055" s="7" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="D1055" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1055" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25011,10 +25017,10 @@
         <v>7</v>
       </c>
       <c r="D1056" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1056" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25025,13 +25031,13 @@
         <v>1316</v>
       </c>
       <c r="C1057" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1057" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1057" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25059,7 +25065,7 @@
         <v>1318</v>
       </c>
       <c r="C1059" s="7" t="s">
-        <v>1319</v>
+        <v>73</v>
       </c>
       <c r="D1059" s="8" t="s">
         <v>336</v>
@@ -25073,16 +25079,16 @@
         <v>1059</v>
       </c>
       <c r="B1060" s="10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1060" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="C1060" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D1060" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1060" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25093,13 +25099,13 @@
         <v>1321</v>
       </c>
       <c r="C1061" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="D1061" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1061" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25110,13 +25116,13 @@
         <v>1322</v>
       </c>
       <c r="C1062" s="7" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D1062" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1062" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25127,7 +25133,7 @@
         <v>1323</v>
       </c>
       <c r="C1063" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1063" s="8" t="s">
         <v>336</v>
@@ -25144,7 +25150,7 @@
         <v>1324</v>
       </c>
       <c r="C1064" s="7" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="D1064" s="8" t="s">
         <v>336</v>
@@ -25161,13 +25167,13 @@
         <v>1325</v>
       </c>
       <c r="C1065" s="7" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="D1065" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1065" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25178,13 +25184,13 @@
         <v>1326</v>
       </c>
       <c r="C1066" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1066" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1066" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25195,7 +25201,7 @@
         <v>1327</v>
       </c>
       <c r="C1067" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D1067" s="8" t="s">
         <v>336</v>
@@ -25212,7 +25218,7 @@
         <v>1328</v>
       </c>
       <c r="C1068" s="7" t="s">
-        <v>695</v>
+        <v>144</v>
       </c>
       <c r="D1068" s="8" t="s">
         <v>336</v>
@@ -25229,7 +25235,7 @@
         <v>1329</v>
       </c>
       <c r="C1069" s="7" t="s">
-        <v>73</v>
+        <v>695</v>
       </c>
       <c r="D1069" s="8" t="s">
         <v>336</v>
@@ -25246,7 +25252,7 @@
         <v>1330</v>
       </c>
       <c r="C1070" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1070" s="8" t="s">
         <v>336</v>
@@ -25263,7 +25269,7 @@
         <v>1331</v>
       </c>
       <c r="C1071" s="7" t="s">
-        <v>1332</v>
+        <v>22</v>
       </c>
       <c r="D1071" s="8" t="s">
         <v>336</v>
@@ -25277,10 +25283,10 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="10" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1072" s="7" t="s">
         <v>1333</v>
-      </c>
-      <c r="C1072" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D1072" s="8" t="s">
         <v>336</v>
@@ -25297,13 +25303,13 @@
         <v>1334</v>
       </c>
       <c r="C1073" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D1073" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1073" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25314,13 +25320,13 @@
         <v>1335</v>
       </c>
       <c r="C1074" s="7" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D1074" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1074" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25331,7 +25337,7 @@
         <v>1336</v>
       </c>
       <c r="C1075" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D1075" s="8" t="s">
         <v>336</v>
@@ -25348,13 +25354,13 @@
         <v>1337</v>
       </c>
       <c r="C1076" s="7" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D1076" s="8" t="s">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="E1076" s="8" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25365,13 +25371,13 @@
         <v>1338</v>
       </c>
       <c r="C1077" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1077" s="8" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E1077" s="8" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25433,13 +25439,13 @@
         <v>1342</v>
       </c>
       <c r="C1081" s="7" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="D1081" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1081" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25450,7 +25456,7 @@
         <v>1343</v>
       </c>
       <c r="C1082" s="7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D1082" s="8" t="s">
         <v>336</v>
@@ -25470,10 +25476,10 @@
         <v>73</v>
       </c>
       <c r="D1083" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1083" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25484,7 +25490,7 @@
         <v>1345</v>
       </c>
       <c r="C1084" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D1084" s="8" t="s">
         <v>336</v>
@@ -25501,7 +25507,7 @@
         <v>1346</v>
       </c>
       <c r="C1085" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1085" s="8" t="s">
         <v>336</v>
@@ -25518,7 +25524,7 @@
         <v>1347</v>
       </c>
       <c r="C1086" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D1086" s="8" t="s">
         <v>336</v>
@@ -25535,7 +25541,7 @@
         <v>1348</v>
       </c>
       <c r="C1087" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1087" s="8" t="s">
         <v>336</v>
@@ -25552,13 +25558,13 @@
         <v>1349</v>
       </c>
       <c r="C1088" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D1088" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1088" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25569,13 +25575,13 @@
         <v>1350</v>
       </c>
       <c r="C1089" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D1089" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1089" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25586,13 +25592,13 @@
         <v>1351</v>
       </c>
       <c r="C1090" s="7" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D1090" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1090" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25603,13 +25609,13 @@
         <v>1352</v>
       </c>
       <c r="C1091" s="7" t="s">
-        <v>990</v>
+        <v>133</v>
       </c>
       <c r="D1091" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1091" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25620,13 +25626,13 @@
         <v>1353</v>
       </c>
       <c r="C1092" s="7" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="D1092" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1092" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25637,13 +25643,13 @@
         <v>1354</v>
       </c>
       <c r="C1093" s="7" t="s">
-        <v>285</v>
+        <v>990</v>
       </c>
       <c r="D1093" s="8" t="s">
-        <v>122</v>
+        <v>336</v>
       </c>
       <c r="E1093" s="8" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25654,13 +25660,13 @@
         <v>1355</v>
       </c>
       <c r="C1094" s="7" t="s">
-        <v>352</v>
+        <v>144</v>
       </c>
       <c r="D1094" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1094" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25671,13 +25677,13 @@
         <v>1356</v>
       </c>
       <c r="C1095" s="7" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="D1095" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1095" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25688,7 +25694,7 @@
         <v>1357</v>
       </c>
       <c r="C1096" s="7" t="s">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="D1096" s="8" t="s">
         <v>336</v>
@@ -25705,13 +25711,13 @@
         <v>1358</v>
       </c>
       <c r="C1097" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1097" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1097" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25739,7 +25745,7 @@
         <v>1360</v>
       </c>
       <c r="C1099" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1099" s="8" t="s">
         <v>336</v>
@@ -25756,7 +25762,7 @@
         <v>1361</v>
       </c>
       <c r="C1100" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1100" s="8" t="s">
         <v>336</v>
@@ -25773,7 +25779,7 @@
         <v>1362</v>
       </c>
       <c r="C1101" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D1101" s="8" t="s">
         <v>336</v>
@@ -25790,7 +25796,7 @@
         <v>1363</v>
       </c>
       <c r="C1102" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1102" s="8" t="s">
         <v>336</v>
@@ -25807,7 +25813,7 @@
         <v>1364</v>
       </c>
       <c r="C1103" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D1103" s="8" t="s">
         <v>336</v>
@@ -25824,13 +25830,13 @@
         <v>1365</v>
       </c>
       <c r="C1104" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D1104" s="8" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E1104" s="8" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25858,13 +25864,13 @@
         <v>1367</v>
       </c>
       <c r="C1106" s="7" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D1106" s="8" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="E1106" s="8" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25875,7 +25881,7 @@
         <v>1368</v>
       </c>
       <c r="C1107" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1107" s="8" t="s">
         <v>336</v>
@@ -25892,7 +25898,7 @@
         <v>1369</v>
       </c>
       <c r="C1108" s="7" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D1108" s="8" t="s">
         <v>122</v>
@@ -25909,13 +25915,13 @@
         <v>1370</v>
       </c>
       <c r="C1109" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1109" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1109" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25926,7 +25932,7 @@
         <v>1371</v>
       </c>
       <c r="C1110" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D1110" s="8" t="s">
         <v>122</v>
@@ -25943,13 +25949,13 @@
         <v>1372</v>
       </c>
       <c r="C1111" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1111" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1111" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25960,13 +25966,13 @@
         <v>1373</v>
       </c>
       <c r="C1112" s="7" t="s">
-        <v>636</v>
+        <v>22</v>
       </c>
       <c r="D1112" s="8" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1112" s="8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25977,7 +25983,7 @@
         <v>1374</v>
       </c>
       <c r="C1113" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1113" s="8" t="s">
         <v>336</v>
@@ -25994,13 +26000,13 @@
         <v>1375</v>
       </c>
       <c r="C1114" s="7" t="s">
-        <v>22</v>
+        <v>636</v>
       </c>
       <c r="D1114" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1114" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26011,7 +26017,7 @@
         <v>1376</v>
       </c>
       <c r="C1115" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1115" s="8" t="s">
         <v>336</v>
@@ -26048,10 +26054,10 @@
         <v>7</v>
       </c>
       <c r="D1117" s="8" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E1117" s="8" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26062,7 +26068,7 @@
         <v>1379</v>
       </c>
       <c r="C1118" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1118" s="8" t="s">
         <v>336</v>
@@ -26079,13 +26085,13 @@
         <v>1380</v>
       </c>
       <c r="C1119" s="7" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D1119" s="8" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="E1119" s="8" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26096,13 +26102,13 @@
         <v>1381</v>
       </c>
       <c r="C1120" s="7" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="D1120" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1120" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26113,13 +26119,13 @@
         <v>1382</v>
       </c>
       <c r="C1121" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D1121" s="8" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="E1121" s="8" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26130,13 +26136,13 @@
         <v>1383</v>
       </c>
       <c r="C1122" s="7" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="D1122" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1122" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26147,13 +26153,13 @@
         <v>1384</v>
       </c>
       <c r="C1123" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1123" s="8" t="s">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="E1123" s="8" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26164,7 +26170,7 @@
         <v>1385</v>
       </c>
       <c r="C1124" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1124" s="8" t="s">
         <v>336</v>
@@ -26198,7 +26204,7 @@
         <v>1387</v>
       </c>
       <c r="C1126" s="7" t="s">
-        <v>515</v>
+        <v>73</v>
       </c>
       <c r="D1126" s="8" t="s">
         <v>336</v>
@@ -26215,13 +26221,13 @@
         <v>1388</v>
       </c>
       <c r="C1127" s="7" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D1127" s="8" t="s">
-        <v>778</v>
+        <v>336</v>
       </c>
       <c r="E1127" s="8" t="s">
-        <v>779</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26232,13 +26238,13 @@
         <v>1389</v>
       </c>
       <c r="C1128" s="7" t="s">
-        <v>246</v>
+        <v>515</v>
       </c>
       <c r="D1128" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1128" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26249,13 +26255,13 @@
         <v>1390</v>
       </c>
       <c r="C1129" s="7" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D1129" s="8" t="s">
-        <v>55</v>
+        <v>778</v>
       </c>
       <c r="E1129" s="8" t="s">
-        <v>56</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26266,13 +26272,13 @@
         <v>1391</v>
       </c>
       <c r="C1130" s="7" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="D1130" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1130" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26283,13 +26289,13 @@
         <v>1392</v>
       </c>
       <c r="C1131" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D1131" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1131" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26300,13 +26306,13 @@
         <v>1393</v>
       </c>
       <c r="C1132" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1132" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1132" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26317,7 +26323,7 @@
         <v>1394</v>
       </c>
       <c r="C1133" s="7" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="D1133" s="8" t="s">
         <v>336</v>
@@ -26334,7 +26340,7 @@
         <v>1395</v>
       </c>
       <c r="C1134" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1134" s="8" t="s">
         <v>55</v>
@@ -26351,7 +26357,7 @@
         <v>1396</v>
       </c>
       <c r="C1135" s="7" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="D1135" s="8" t="s">
         <v>336</v>
@@ -26368,13 +26374,13 @@
         <v>1397</v>
       </c>
       <c r="C1136" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1136" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1136" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26385,7 +26391,7 @@
         <v>1398</v>
       </c>
       <c r="C1137" s="7" t="s">
-        <v>515</v>
+        <v>246</v>
       </c>
       <c r="D1137" s="8" t="s">
         <v>336</v>
@@ -26402,7 +26408,7 @@
         <v>1399</v>
       </c>
       <c r="C1138" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1138" s="8" t="s">
         <v>336</v>
@@ -26419,13 +26425,13 @@
         <v>1400</v>
       </c>
       <c r="C1139" s="7" t="s">
-        <v>1401</v>
+        <v>515</v>
       </c>
       <c r="D1139" s="8" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="E1139" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26433,10 +26439,10 @@
         <v>1139</v>
       </c>
       <c r="B1140" s="10" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C1140" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D1140" s="8" t="s">
         <v>336</v>
@@ -26450,16 +26456,16 @@
         <v>1140</v>
       </c>
       <c r="B1141" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1141" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="C1141" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="D1141" s="8" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="E1141" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26470,13 +26476,13 @@
         <v>1404</v>
       </c>
       <c r="C1142" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D1142" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1142" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26487,7 +26493,7 @@
         <v>1405</v>
       </c>
       <c r="C1143" s="7" t="s">
-        <v>22</v>
+        <v>475</v>
       </c>
       <c r="D1143" s="8" t="s">
         <v>336</v>
@@ -26504,13 +26510,13 @@
         <v>1406</v>
       </c>
       <c r="C1144" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D1144" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1144" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26541,10 +26547,10 @@
         <v>73</v>
       </c>
       <c r="D1146" s="8" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="E1146" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26555,7 +26561,7 @@
         <v>1409</v>
       </c>
       <c r="C1147" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1147" s="8" t="s">
         <v>336</v>
@@ -26572,13 +26578,13 @@
         <v>1410</v>
       </c>
       <c r="C1148" s="7" t="s">
-        <v>246</v>
+        <v>73</v>
       </c>
       <c r="D1148" s="8" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="E1148" s="8" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26589,7 +26595,7 @@
         <v>1411</v>
       </c>
       <c r="C1149" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1149" s="8" t="s">
         <v>336</v>
@@ -26606,7 +26612,7 @@
         <v>1412</v>
       </c>
       <c r="C1150" s="7" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="D1150" s="8" t="s">
         <v>336</v>
@@ -26623,7 +26629,7 @@
         <v>1413</v>
       </c>
       <c r="C1151" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D1151" s="8" t="s">
         <v>336</v>
@@ -26640,7 +26646,7 @@
         <v>1414</v>
       </c>
       <c r="C1152" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1152" s="8" t="s">
         <v>336</v>
@@ -26657,7 +26663,7 @@
         <v>1415</v>
       </c>
       <c r="C1153" s="7" t="s">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="D1153" s="8" t="s">
         <v>336</v>
@@ -26674,7 +26680,7 @@
         <v>1416</v>
       </c>
       <c r="C1154" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D1154" s="8" t="s">
         <v>336</v>
@@ -26691,7 +26697,7 @@
         <v>1417</v>
       </c>
       <c r="C1155" s="7" t="s">
-        <v>1418</v>
+        <v>7</v>
       </c>
       <c r="D1155" s="8" t="s">
         <v>336</v>
@@ -26705,7 +26711,7 @@
         <v>1155</v>
       </c>
       <c r="B1156" s="10" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C1156" s="7" t="s">
         <v>22</v>
@@ -26722,10 +26728,10 @@
         <v>1156</v>
       </c>
       <c r="B1157" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C1157" s="7" t="s">
         <v>1420</v>
-      </c>
-      <c r="C1157" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="D1157" s="8" t="s">
         <v>336</v>
@@ -26759,13 +26765,13 @@
         <v>1422</v>
       </c>
       <c r="C1159" s="7" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="D1159" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1159" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26779,10 +26785,10 @@
         <v>22</v>
       </c>
       <c r="D1160" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1160" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26793,13 +26799,13 @@
         <v>1424</v>
       </c>
       <c r="C1161" s="7" t="s">
-        <v>1136</v>
+        <v>7</v>
       </c>
       <c r="D1161" s="8" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E1161" s="8" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26810,13 +26816,13 @@
         <v>1425</v>
       </c>
       <c r="C1162" s="7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D1162" s="8" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="E1162" s="8" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26827,13 +26833,13 @@
         <v>1426</v>
       </c>
       <c r="C1163" s="7" t="s">
-        <v>7</v>
+        <v>1136</v>
       </c>
       <c r="D1163" s="8" t="s">
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="E1163" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26844,13 +26850,13 @@
         <v>1427</v>
       </c>
       <c r="C1164" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D1164" s="8" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
       <c r="E1164" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26861,13 +26867,13 @@
         <v>1428</v>
       </c>
       <c r="C1165" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D1165" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1165" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26895,13 +26901,13 @@
         <v>1430</v>
       </c>
       <c r="C1167" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D1167" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1167" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26912,13 +26918,13 @@
         <v>1431</v>
       </c>
       <c r="C1168" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D1168" s="8" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E1168" s="8" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26929,7 +26935,7 @@
         <v>1432</v>
       </c>
       <c r="C1169" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1169" s="8" t="s">
         <v>336</v>
@@ -26946,13 +26952,13 @@
         <v>1433</v>
       </c>
       <c r="C1170" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1170" s="8" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="E1170" s="8" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26963,13 +26969,13 @@
         <v>1434</v>
       </c>
       <c r="C1171" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1171" s="8" t="s">
-        <v>200</v>
+        <v>336</v>
       </c>
       <c r="E1171" s="8" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26980,7 +26986,7 @@
         <v>1435</v>
       </c>
       <c r="C1172" s="7" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="D1172" s="8" t="s">
         <v>336</v>
@@ -26997,13 +27003,13 @@
         <v>1436</v>
       </c>
       <c r="C1173" s="7" t="s">
-        <v>515</v>
+        <v>22</v>
       </c>
       <c r="D1173" s="8" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E1173" s="8" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27014,13 +27020,13 @@
         <v>1437</v>
       </c>
       <c r="C1174" s="7" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="D1174" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1174" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27031,7 +27037,7 @@
         <v>1438</v>
       </c>
       <c r="C1175" s="7" t="s">
-        <v>22</v>
+        <v>515</v>
       </c>
       <c r="D1175" s="8" t="s">
         <v>336</v>
@@ -27048,13 +27054,13 @@
         <v>1439</v>
       </c>
       <c r="C1176" s="7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D1176" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1176" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27065,7 +27071,7 @@
         <v>1440</v>
       </c>
       <c r="C1177" s="7" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D1177" s="8" t="s">
         <v>336</v>
@@ -27082,7 +27088,7 @@
         <v>1441</v>
       </c>
       <c r="C1178" s="7" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="D1178" s="8" t="s">
         <v>336</v>
@@ -27099,7 +27105,7 @@
         <v>1442</v>
       </c>
       <c r="C1179" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D1179" s="8" t="s">
         <v>336</v>
@@ -27116,7 +27122,7 @@
         <v>1443</v>
       </c>
       <c r="C1180" s="7" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D1180" s="8" t="s">
         <v>336</v>
@@ -27133,13 +27139,13 @@
         <v>1444</v>
       </c>
       <c r="C1181" s="7" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D1181" s="8" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="E1181" s="8" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27150,7 +27156,7 @@
         <v>1445</v>
       </c>
       <c r="C1182" s="7" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D1182" s="8" t="s">
         <v>336</v>
@@ -27167,13 +27173,13 @@
         <v>1446</v>
       </c>
       <c r="C1183" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1183" s="8" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="E1183" s="8" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27184,7 +27190,7 @@
         <v>1447</v>
       </c>
       <c r="C1184" s="7" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="D1184" s="8" t="s">
         <v>336</v>
@@ -27218,7 +27224,7 @@
         <v>1449</v>
       </c>
       <c r="C1186" s="7" t="s">
-        <v>618</v>
+        <v>121</v>
       </c>
       <c r="D1186" s="8" t="s">
         <v>336</v>
@@ -27235,7 +27241,7 @@
         <v>1450</v>
       </c>
       <c r="C1187" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1187" s="8" t="s">
         <v>336</v>
@@ -27252,7 +27258,7 @@
         <v>1451</v>
       </c>
       <c r="C1188" s="7" t="s">
-        <v>7</v>
+        <v>618</v>
       </c>
       <c r="D1188" s="8" t="s">
         <v>336</v>
@@ -27269,7 +27275,7 @@
         <v>1452</v>
       </c>
       <c r="C1189" s="7" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D1189" s="8" t="s">
         <v>336</v>
@@ -27303,7 +27309,7 @@
         <v>1454</v>
       </c>
       <c r="C1191" s="7" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D1191" s="8" t="s">
         <v>336</v>
@@ -27320,7 +27326,7 @@
         <v>1455</v>
       </c>
       <c r="C1192" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1192" s="8" t="s">
         <v>336</v>
@@ -27337,7 +27343,7 @@
         <v>1456</v>
       </c>
       <c r="C1193" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1193" s="8" t="s">
         <v>336</v>
@@ -27354,13 +27360,13 @@
         <v>1457</v>
       </c>
       <c r="C1194" s="7" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D1194" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1194" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27391,10 +27397,10 @@
         <v>7</v>
       </c>
       <c r="D1196" s="8" t="s">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="E1196" s="8" t="s">
-        <v>291</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27405,7 +27411,7 @@
         <v>1460</v>
       </c>
       <c r="C1197" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1197" s="8" t="s">
         <v>336</v>
@@ -27422,13 +27428,13 @@
         <v>1461</v>
       </c>
       <c r="C1198" s="7" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D1198" s="8" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="E1198" s="8" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27439,7 +27445,7 @@
         <v>1462</v>
       </c>
       <c r="C1199" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D1199" s="8" t="s">
         <v>336</v>
@@ -27456,13 +27462,13 @@
         <v>1463</v>
       </c>
       <c r="C1200" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="D1200" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1200" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27473,13 +27479,13 @@
         <v>1464</v>
       </c>
       <c r="C1201" s="7" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="D1201" s="8" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E1201" s="8" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27490,7 +27496,7 @@
         <v>1465</v>
       </c>
       <c r="C1202" s="7" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D1202" s="8" t="s">
         <v>336</v>
@@ -27507,13 +27513,13 @@
         <v>1466</v>
       </c>
       <c r="C1203" s="7" t="s">
-        <v>1467</v>
+        <v>177</v>
       </c>
       <c r="D1203" s="8" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="E1203" s="8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27521,10 +27527,10 @@
         <v>1203</v>
       </c>
       <c r="B1204" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C1204" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D1204" s="8" t="s">
         <v>336</v>
@@ -27538,10 +27544,10 @@
         <v>1204</v>
       </c>
       <c r="B1205" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C1205" s="7" t="s">
         <v>1469</v>
-      </c>
-      <c r="C1205" s="7" t="s">
-        <v>636</v>
       </c>
       <c r="D1205" s="8" t="s">
         <v>336</v>
@@ -27558,7 +27564,7 @@
         <v>1470</v>
       </c>
       <c r="C1206" s="7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D1206" s="8" t="s">
         <v>336</v>
@@ -27575,7 +27581,7 @@
         <v>1471</v>
       </c>
       <c r="C1207" s="7" t="s">
-        <v>177</v>
+        <v>636</v>
       </c>
       <c r="D1207" s="8" t="s">
         <v>336</v>
@@ -27609,12 +27615,46 @@
         <v>1473</v>
       </c>
       <c r="C1209" s="7" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="D1209" s="8" t="s">
         <v>336</v>
       </c>
       <c r="E1209" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1210" s="6" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1210" s="10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C1210" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1210" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1210" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="6" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1211" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C1211" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1211" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1211" s="8" t="s">
         <v>73</v>
       </c>
     </row>

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -376,7 +376,7 @@
     <t xml:space="preserve">TanteMariane</t>
   </si>
   <si>
-    <t xml:space="preserve">Rips</t>
+    <t xml:space="preserve">latina</t>
   </si>
   <si>
     <t xml:space="preserve">Facning</t>
@@ -4646,8 +4646,8 @@
   </sheetPr>
   <dimension ref="A1:N1259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1076" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1080" activeCellId="0" sqref="E1080"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -817,7 +817,7 @@
     <t xml:space="preserve">retsu_teno</t>
   </si>
   <si>
-    <t xml:space="preserve">Chariot_Rider</t>
+    <t xml:space="preserve">ChariotRider</t>
   </si>
   <si>
     <t xml:space="preserve">laza2115</t>
@@ -907,7 +907,7 @@
     <t xml:space="preserve">spoogat</t>
   </si>
   <si>
-    <t xml:space="preserve">Matthe3wZ</t>
+    <t xml:space="preserve">Matth3wZ</t>
   </si>
   <si>
     <t xml:space="preserve">Portugal</t>
@@ -943,7 +943,7 @@
     <t xml:space="preserve">PrincessRosca</t>
   </si>
   <si>
-    <t xml:space="preserve">shimano_li</t>
+    <t xml:space="preserve">shinano_li</t>
   </si>
   <si>
     <t xml:space="preserve">4201</t>
@@ -1396,15 +1396,15 @@
     <t xml:space="preserve">_V1meR_</t>
   </si>
   <si>
+    <t xml:space="preserve">n_lizard</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jakomo0</t>
   </si>
   <si>
     <t xml:space="preserve">Krystek13</t>
   </si>
   <si>
-    <t xml:space="preserve">n_lizard</t>
-  </si>
-  <si>
     <t xml:space="preserve">ButSmokes</t>
   </si>
   <si>
@@ -1660,12 +1660,12 @@
     <t xml:space="preserve">Sajmon_ni</t>
   </si>
   <si>
+    <t xml:space="preserve">KeeBoley</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goodigo</t>
   </si>
   <si>
-    <t xml:space="preserve">KeeBoley</t>
-  </si>
-  <si>
     <t xml:space="preserve">SleepyHazzard</t>
   </si>
   <si>
@@ -1747,19 +1747,19 @@
     <t xml:space="preserve">swison</t>
   </si>
   <si>
+    <t xml:space="preserve">filippeo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dodecaplex3BLD</t>
   </si>
   <si>
-    <t xml:space="preserve">filippeo</t>
-  </si>
-  <si>
     <t xml:space="preserve">ronderus</t>
   </si>
   <si>
     <t xml:space="preserve">sfhsfh100</t>
   </si>
   <si>
-    <t xml:space="preserve">Fahad_789</t>
+    <t xml:space="preserve">fahad_789</t>
   </si>
   <si>
     <t xml:space="preserve">1011</t>
@@ -1825,12 +1825,12 @@
     <t xml:space="preserve">kameleon_667</t>
   </si>
   <si>
+    <t xml:space="preserve">_sample</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lboel</t>
   </si>
   <si>
-    <t xml:space="preserve">_sample</t>
-  </si>
-  <si>
     <t xml:space="preserve">agreergaTW</t>
   </si>
   <si>
@@ -1984,12 +1984,12 @@
     <t xml:space="preserve">samehada</t>
   </si>
   <si>
+    <t xml:space="preserve">salamijohn</t>
+  </si>
+  <si>
     <t xml:space="preserve">periclesM</t>
   </si>
   <si>
-    <t xml:space="preserve">salamijohn</t>
-  </si>
-  <si>
     <t xml:space="preserve">0pagan_</t>
   </si>
   <si>
@@ -2017,10 +2017,10 @@
     <t xml:space="preserve">occuliquetzal</t>
   </si>
   <si>
-    <t xml:space="preserve">DigTSmorin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiji_64</t>
+    <t xml:space="preserve">DwigTSmorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiji_64</t>
   </si>
   <si>
     <t xml:space="preserve">KurenaiK_VT</t>
@@ -2257,12 +2257,12 @@
     <t xml:space="preserve">Fullserver</t>
   </si>
   <si>
+    <t xml:space="preserve">OstryGulasz69</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpakast</t>
   </si>
   <si>
-    <t xml:space="preserve">OstryGulasz69</t>
-  </si>
-  <si>
     <t xml:space="preserve">Axolotl997</t>
   </si>
   <si>
@@ -2452,12 +2452,12 @@
     <t xml:space="preserve">doaskamchatka</t>
   </si>
   <si>
+    <t xml:space="preserve">BlackWind1031</t>
+  </si>
+  <si>
     <t xml:space="preserve">blion</t>
   </si>
   <si>
-    <t xml:space="preserve">BlackWind1031</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aquas</t>
   </si>
   <si>
@@ -2476,7 +2476,7 @@
     <t xml:space="preserve">tetrixstreams</t>
   </si>
   <si>
-    <t xml:space="preserve">MontyvsTHEWORLD</t>
+    <t xml:space="preserve">MONTYvsTHEWORLD</t>
   </si>
   <si>
     <t xml:space="preserve">mizyoursisterhot</t>
@@ -2587,7 +2587,7 @@
     <t xml:space="preserve">Con_s1</t>
   </si>
   <si>
-    <t xml:space="preserve">BerserkerKing</t>
+    <t xml:space="preserve">BerserKing</t>
   </si>
   <si>
     <t xml:space="preserve">Adam_na_speedzie</t>
@@ -2596,7 +2596,7 @@
     <t xml:space="preserve">Usiruk</t>
   </si>
   <si>
-    <t xml:space="preserve">Bigboes97</t>
+    <t xml:space="preserve">Bigboe97</t>
   </si>
   <si>
     <t xml:space="preserve">ThomasGabrielWhite</t>
@@ -2632,7 +2632,7 @@
     <t xml:space="preserve">ch0co_chip</t>
   </si>
   <si>
-    <t xml:space="preserve">Cllyydde</t>
+    <t xml:space="preserve">rosemarrryy</t>
   </si>
   <si>
     <t xml:space="preserve">Jezse_</t>
@@ -2641,7 +2641,7 @@
     <t xml:space="preserve">Lucksack</t>
   </si>
   <si>
-    <t xml:space="preserve">Quirell</t>
+    <t xml:space="preserve">Quirrel</t>
   </si>
   <si>
     <t xml:space="preserve">ModeratelyFastGamer</t>
@@ -2662,12 +2662,12 @@
     <t xml:space="preserve">mizkif</t>
   </si>
   <si>
+    <t xml:space="preserve">Krychas</t>
+  </si>
+  <si>
     <t xml:space="preserve">JSJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Krychas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crnk</t>
   </si>
   <si>
@@ -2677,12 +2677,12 @@
     <t xml:space="preserve">insomnya</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiara_TV</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ko_AEsir</t>
   </si>
   <si>
-    <t xml:space="preserve">Phant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gerwiczek</t>
   </si>
   <si>
@@ -2695,7 +2695,7 @@
     <t xml:space="preserve">Nagzz21</t>
   </si>
   <si>
-    <t xml:space="preserve">StewieWonder</t>
+    <t xml:space="preserve">Stewie_Wonder</t>
   </si>
   <si>
     <t xml:space="preserve">Deltaforcesea</t>
@@ -2851,7 +2851,7 @@
     <t xml:space="preserve">Techguy087</t>
   </si>
   <si>
-    <t xml:space="preserve">XarGM</t>
+    <t xml:space="preserve">GGXar</t>
   </si>
   <si>
     <t xml:space="preserve">TerminalVT</t>
@@ -2887,7 +2887,7 @@
     <t xml:space="preserve">Fughie</t>
   </si>
   <si>
-    <t xml:space="preserve">Rauga</t>
+    <t xml:space="preserve">Ruaga</t>
   </si>
   <si>
     <t xml:space="preserve">Naczelny_idiota</t>
@@ -2935,7 +2935,7 @@
     <t xml:space="preserve">PankyVT</t>
   </si>
   <si>
-    <t xml:space="preserve">Oski_</t>
+    <t xml:space="preserve">Oski__</t>
   </si>
   <si>
     <t xml:space="preserve">Kingsssss</t>
@@ -2962,7 +2962,7 @@
     <t xml:space="preserve">koisakaa</t>
   </si>
   <si>
-    <t xml:space="preserve">Knedla</t>
+    <t xml:space="preserve">Knedla_</t>
   </si>
   <si>
     <t xml:space="preserve">number3dfan</t>
@@ -3016,10 +3016,10 @@
     <t xml:space="preserve">temujin0507</t>
   </si>
   <si>
-    <t xml:space="preserve">Dwayne_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professiona1_Gamer</t>
+    <t xml:space="preserve">DWayne_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesiona1_Gamer</t>
   </si>
   <si>
     <t xml:space="preserve">Revilo_1206</t>
@@ -3058,7 +3058,7 @@
     <t xml:space="preserve">AllayedYT</t>
   </si>
   <si>
-    <t xml:space="preserve">MaCzyk_</t>
+    <t xml:space="preserve">KamCzyk_</t>
   </si>
   <si>
     <t xml:space="preserve">Cewew</t>
@@ -3187,12 +3187,12 @@
     <t xml:space="preserve">Bertosz_</t>
   </si>
   <si>
+    <t xml:space="preserve">OD_Jake</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maethros</t>
   </si>
   <si>
-    <t xml:space="preserve">OD_Jake</t>
-  </si>
-  <si>
     <t xml:space="preserve">Europka</t>
   </si>
   <si>
@@ -3370,12 +3370,12 @@
     <t xml:space="preserve">NoirKyoko</t>
   </si>
   <si>
-    <t xml:space="preserve">Mark_0325</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hsegra</t>
   </si>
   <si>
+    <t xml:space="preserve">mark_0325</t>
+  </si>
+  <si>
     <t xml:space="preserve">CzesiuleQ</t>
   </si>
   <si>
@@ -3526,12 +3526,12 @@
     <t xml:space="preserve">Gachenson</t>
   </si>
   <si>
+    <t xml:space="preserve">yossidazo</t>
+  </si>
+  <si>
     <t xml:space="preserve">elt3ris</t>
   </si>
   <si>
-    <t xml:space="preserve">yossidazo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matieusz</t>
   </si>
   <si>
@@ -3700,12 +3700,12 @@
     <t xml:space="preserve">syutokennard</t>
   </si>
   <si>
+    <t xml:space="preserve">ezander11</t>
+  </si>
+  <si>
     <t xml:space="preserve">tkcampo</t>
   </si>
   <si>
-    <t xml:space="preserve">ezander11</t>
-  </si>
-  <si>
     <t xml:space="preserve">ShadowZoroark</t>
   </si>
   <si>
@@ -3775,12 +3775,12 @@
     <t xml:space="preserve">Its_Corn</t>
   </si>
   <si>
+    <t xml:space="preserve">lululu6689</t>
+  </si>
+  <si>
     <t xml:space="preserve">_Shrub</t>
   </si>
   <si>
-    <t xml:space="preserve">lululu6689</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amrzs</t>
   </si>
   <si>
@@ -3790,7 +3790,7 @@
     <t xml:space="preserve">deadstick8</t>
   </si>
   <si>
-    <t xml:space="preserve">kurimame</t>
+    <t xml:space="preserve">LifeLine26</t>
   </si>
   <si>
     <t xml:space="preserve">AnonWolf</t>
@@ -3844,6 +3844,9 @@
     <t xml:space="preserve">BOMBADUPASIEMALYSA</t>
   </si>
   <si>
+    <t xml:space="preserve">Pigmess</t>
+  </si>
+  <si>
     <t xml:space="preserve">znamir11</t>
   </si>
   <si>
@@ -4024,9 +4027,6 @@
     <t xml:space="preserve">Enestery</t>
   </si>
   <si>
-    <t xml:space="preserve">Pigmess</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adamson23</t>
   </si>
   <si>
@@ -4042,7 +4042,7 @@
     <t xml:space="preserve">wjrbdhwjbrkdba</t>
   </si>
   <si>
-    <t xml:space="preserve">Pmoon</t>
+    <t xml:space="preserve">PMoon</t>
   </si>
   <si>
     <t xml:space="preserve">Puerto Rico</t>
@@ -4072,7 +4072,7 @@
     <t xml:space="preserve">Kotlecior</t>
   </si>
   <si>
-    <t xml:space="preserve">SstephenMC</t>
+    <t xml:space="preserve">SStephenMC</t>
   </si>
   <si>
     <t xml:space="preserve">Baszu123</t>
@@ -4120,7 +4120,7 @@
     <t xml:space="preserve">zukpuvee777</t>
   </si>
   <si>
-    <t xml:space="preserve">janek49</t>
+    <t xml:space="preserve">janke49</t>
   </si>
   <si>
     <t xml:space="preserve">RCLMateo</t>
@@ -4673,8 +4673,8 @@
   </sheetPr>
   <dimension ref="A1:N1221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4713,8 +4713,6 @@
         <v>5</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
@@ -4740,8 +4738,6 @@
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
@@ -4767,8 +4763,6 @@
       <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
@@ -4794,8 +4788,6 @@
       <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
     </row>
@@ -4821,8 +4813,6 @@
       <c r="H5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
     </row>
@@ -4848,8 +4838,6 @@
       <c r="H6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
@@ -4875,8 +4863,6 @@
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
@@ -4902,8 +4888,6 @@
       <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
@@ -4929,8 +4913,6 @@
       <c r="H9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
@@ -4956,8 +4938,6 @@
       <c r="H10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
@@ -4983,8 +4963,6 @@
       <c r="H11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
@@ -5010,8 +4988,6 @@
       <c r="H12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
@@ -5037,8 +5013,6 @@
       <c r="H13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
@@ -5064,8 +5038,6 @@
       <c r="H14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
@@ -5091,8 +5063,6 @@
       <c r="H15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
@@ -5118,8 +5088,6 @@
       <c r="H16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
@@ -5145,8 +5113,6 @@
       <c r="H17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
@@ -5172,8 +5138,6 @@
       <c r="H18" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
@@ -5199,8 +5163,6 @@
       <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
     </row>
@@ -5226,8 +5188,6 @@
       <c r="H20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
@@ -5253,8 +5213,6 @@
       <c r="H21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
@@ -5280,8 +5238,6 @@
       <c r="H22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
@@ -5307,8 +5263,6 @@
       <c r="H23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
@@ -5334,8 +5288,6 @@
       <c r="H24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
@@ -5361,8 +5313,6 @@
       <c r="H25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
@@ -5388,8 +5338,6 @@
       <c r="H26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
@@ -5415,8 +5363,6 @@
       <c r="H27" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
@@ -5442,8 +5388,6 @@
       <c r="H28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
@@ -5469,8 +5413,6 @@
       <c r="H29" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
@@ -5496,8 +5438,6 @@
       <c r="H30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
@@ -5523,8 +5463,6 @@
       <c r="H31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
@@ -5550,8 +5488,6 @@
       <c r="H32" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
@@ -5577,8 +5513,6 @@
       <c r="H33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
@@ -5604,8 +5538,6 @@
       <c r="H34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
@@ -5631,8 +5563,6 @@
       <c r="H35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
@@ -5658,8 +5588,6 @@
       <c r="H36" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
     </row>
@@ -5685,8 +5613,6 @@
       <c r="H37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
     </row>
@@ -5712,8 +5638,6 @@
       <c r="H38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
     </row>
@@ -5739,8 +5663,6 @@
       <c r="H39" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
@@ -5766,8 +5688,6 @@
       <c r="H40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
@@ -5793,8 +5713,6 @@
       <c r="H41" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
     </row>
@@ -5820,8 +5738,6 @@
       <c r="H42" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
     </row>
@@ -5847,8 +5763,6 @@
       <c r="H43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
     </row>
@@ -5874,8 +5788,6 @@
       <c r="H44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
     </row>
@@ -5901,8 +5813,6 @@
       <c r="H45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
     </row>
@@ -5928,8 +5838,6 @@
       <c r="H46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
     </row>
@@ -5955,8 +5863,6 @@
       <c r="H47" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
     </row>
@@ -5982,8 +5888,6 @@
       <c r="H48" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
     </row>
@@ -6009,8 +5913,6 @@
       <c r="H49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
     </row>
@@ -6036,8 +5938,6 @@
       <c r="H50" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
     </row>
@@ -6063,8 +5963,6 @@
       <c r="H51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
     </row>
@@ -6090,8 +5988,6 @@
       <c r="H52" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
     </row>
@@ -6117,8 +6013,6 @@
       <c r="H53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
     </row>
@@ -6144,8 +6038,6 @@
       <c r="H54" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
     </row>
@@ -6171,8 +6063,6 @@
       <c r="H55" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
     </row>
@@ -6198,8 +6088,6 @@
       <c r="H56" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="I56" s="0"/>
-      <c r="J56" s="0"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
     </row>
@@ -10442,8 +10330,10 @@
       <c r="E246" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G246" s="9"/>
-      <c r="I246" s="9"/>
+      <c r="F246" s="0"/>
+      <c r="G246" s="0"/>
+      <c r="H246" s="0"/>
+      <c r="I246" s="0"/>
       <c r="J246" s="9"/>
       <c r="L246" s="9"/>
       <c r="M246" s="9"/>
@@ -10464,8 +10354,10 @@
       <c r="E247" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G247" s="9"/>
-      <c r="I247" s="9"/>
+      <c r="F247" s="0"/>
+      <c r="G247" s="0"/>
+      <c r="H247" s="0"/>
+      <c r="I247" s="0"/>
       <c r="J247" s="9"/>
       <c r="L247" s="9"/>
       <c r="M247" s="9"/>
@@ -10566,13 +10458,13 @@
         <v>458</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="G252" s="9"/>
       <c r="I252" s="9"/>
@@ -10588,13 +10480,13 @@
         <v>459</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>280</v>
+        <v>152</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="G253" s="9"/>
       <c r="I253" s="9"/>
@@ -10610,13 +10502,13 @@
         <v>460</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="G254" s="9"/>
       <c r="I254" s="9"/>
@@ -12172,6 +12064,10 @@
       <c r="E326" s="8" t="s">
         <v>127</v>
       </c>
+      <c r="F326" s="0"/>
+      <c r="G326" s="0"/>
+      <c r="H326" s="0"/>
+      <c r="I326" s="0"/>
     </row>
     <row r="327" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="n">
@@ -12181,7 +12077,7 @@
         <v>546</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="D327" s="8" t="s">
         <v>291</v>
@@ -12198,7 +12094,7 @@
         <v>547</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="D328" s="8" t="s">
         <v>291</v>
@@ -12657,7 +12553,7 @@
         <v>575</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D355" s="8" t="s">
         <v>56</v>
@@ -12665,6 +12561,10 @@
       <c r="E355" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="F355" s="0"/>
+      <c r="G355" s="0"/>
+      <c r="H355" s="0"/>
+      <c r="I355" s="0"/>
     </row>
     <row r="356" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="n">
@@ -12674,7 +12574,7 @@
         <v>576</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D356" s="8" t="s">
         <v>56</v>
@@ -13048,14 +12948,18 @@
         <v>601</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="D378" s="8" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="E378" s="8" t="s">
-        <v>212</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F378" s="0"/>
+      <c r="G378" s="0"/>
+      <c r="H378" s="0"/>
+      <c r="I378" s="0"/>
     </row>
     <row r="379" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="n">
@@ -13065,13 +12969,13 @@
         <v>602</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13830,13 +13734,13 @@
         <v>654</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>591</v>
+        <v>7</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13847,14 +13751,18 @@
         <v>655</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>7</v>
+        <v>591</v>
       </c>
       <c r="D425" s="8" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>239</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F425" s="0"/>
+      <c r="G425" s="0"/>
+      <c r="H425" s="0"/>
+      <c r="I425" s="0"/>
     </row>
     <row r="426" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="n">
@@ -15286,10 +15194,10 @@
         <v>23</v>
       </c>
       <c r="D509" s="8" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E509" s="8" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F509" s="9"/>
     </row>
@@ -15304,12 +15212,15 @@
         <v>23</v>
       </c>
       <c r="D510" s="8" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E510" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F510" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="F510" s="0"/>
+      <c r="G510" s="0"/>
+      <c r="H510" s="0"/>
+      <c r="I510" s="0"/>
     </row>
     <row r="511" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6" t="n">
@@ -16371,7 +16282,10 @@
       <c r="E569" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F569" s="9"/>
+      <c r="F569" s="0"/>
+      <c r="G569" s="0"/>
+      <c r="H569" s="0"/>
+      <c r="I569" s="0"/>
     </row>
     <row r="570" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="6" t="n">
@@ -17551,10 +17465,10 @@
         <v>23</v>
       </c>
       <c r="D635" s="8" t="s">
-        <v>339</v>
+        <v>202</v>
       </c>
       <c r="E635" s="8" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="F635" s="9"/>
     </row>
@@ -17569,12 +17483,15 @@
         <v>11</v>
       </c>
       <c r="D636" s="8" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="E636" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F636" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="F636" s="0"/>
+      <c r="G636" s="0"/>
+      <c r="H636" s="0"/>
+      <c r="I636" s="0"/>
     </row>
     <row r="637" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="6" t="n">
@@ -17646,7 +17563,10 @@
       <c r="E640" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F640" s="9"/>
+      <c r="F640" s="0"/>
+      <c r="G640" s="0"/>
+      <c r="H640" s="0"/>
+      <c r="I640" s="0"/>
     </row>
     <row r="641" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="6" t="n">
@@ -20569,13 +20489,13 @@
         <v>1055</v>
       </c>
       <c r="C803" s="7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D803" s="8" t="s">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="E803" s="8" t="s">
-        <v>281</v>
+        <v>64</v>
       </c>
       <c r="F803" s="9"/>
     </row>
@@ -20587,15 +20507,18 @@
         <v>1056</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D804" s="8" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="E804" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F804" s="9"/>
+        <v>281</v>
+      </c>
+      <c r="F804" s="0"/>
+      <c r="G804" s="0"/>
+      <c r="H804" s="0"/>
+      <c r="I804" s="0"/>
     </row>
     <row r="805" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="6" t="n">
@@ -21665,13 +21588,13 @@
         <v>1116</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="D864" s="8" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="E864" s="8" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="F864" s="9"/>
     </row>
@@ -21683,15 +21606,18 @@
         <v>1117</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="D865" s="8" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="E865" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F865" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="F865" s="0"/>
+      <c r="G865" s="0"/>
+      <c r="H865" s="0"/>
+      <c r="I865" s="0"/>
     </row>
     <row r="866" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="6" t="n">
@@ -22564,13 +22490,13 @@
         <v>1168</v>
       </c>
       <c r="C914" s="7" t="s">
-        <v>482</v>
+        <v>21</v>
       </c>
       <c r="D914" s="8" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E914" s="8" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="F914" s="9"/>
     </row>
@@ -22582,15 +22508,18 @@
         <v>1169</v>
       </c>
       <c r="C915" s="7" t="s">
-        <v>21</v>
+        <v>482</v>
       </c>
       <c r="D915" s="8" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E915" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F915" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="F915" s="0"/>
+      <c r="G915" s="0"/>
+      <c r="H915" s="0"/>
+      <c r="I915" s="0"/>
     </row>
     <row r="916" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="6" t="n">
@@ -23575,10 +23504,10 @@
         <v>7</v>
       </c>
       <c r="D970" s="8" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="E970" s="8" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="F970" s="9"/>
     </row>
@@ -23593,12 +23522,15 @@
         <v>7</v>
       </c>
       <c r="D971" s="8" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E971" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F971" s="9"/>
+        <v>117</v>
+      </c>
+      <c r="F971" s="0"/>
+      <c r="G971" s="0"/>
+      <c r="H971" s="0"/>
+      <c r="I971" s="0"/>
     </row>
     <row r="972" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="6" t="n">
@@ -24022,13 +23954,13 @@
         <v>1251</v>
       </c>
       <c r="C995" s="7" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="D995" s="8" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="E995" s="8" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="F995" s="9"/>
     </row>
@@ -24040,14 +23972,18 @@
         <v>1252</v>
       </c>
       <c r="C996" s="7" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="D996" s="8" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="E996" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F996" s="0"/>
+      <c r="G996" s="0"/>
+      <c r="H996" s="0"/>
+      <c r="I996" s="0"/>
     </row>
     <row r="997" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="6" t="n">
@@ -24434,7 +24370,7 @@
         <v>1274</v>
       </c>
       <c r="C1018" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D1018" s="8" t="s">
         <v>116</v>
@@ -24452,13 +24388,13 @@
         <v>1275</v>
       </c>
       <c r="C1019" s="7" t="s">
-        <v>719</v>
+        <v>23</v>
       </c>
       <c r="D1019" s="8" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E1019" s="8" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="F1019" s="9"/>
     </row>
@@ -24470,7 +24406,7 @@
         <v>1276</v>
       </c>
       <c r="C1020" s="7" t="s">
-        <v>1277</v>
+        <v>719</v>
       </c>
       <c r="D1020" s="8" t="s">
         <v>56</v>
@@ -24484,16 +24420,16 @@
         <v>1020</v>
       </c>
       <c r="B1021" s="10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C1021" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="C1021" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D1021" s="8" t="s">
-        <v>928</v>
+        <v>56</v>
       </c>
       <c r="E1021" s="8" t="s">
-        <v>929</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24507,10 +24443,10 @@
         <v>42</v>
       </c>
       <c r="D1022" s="8" t="s">
-        <v>56</v>
+        <v>928</v>
       </c>
       <c r="E1022" s="8" t="s">
-        <v>57</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24521,13 +24457,13 @@
         <v>1280</v>
       </c>
       <c r="C1023" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D1023" s="8" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E1023" s="8" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24538,13 +24474,13 @@
         <v>1281</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D1024" s="8" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E1024" s="8" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24555,13 +24491,13 @@
         <v>1282</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1025" s="8" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="E1025" s="8" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24572,13 +24508,13 @@
         <v>1283</v>
       </c>
       <c r="C1026" s="7" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="D1026" s="8" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="E1026" s="8" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24589,13 +24525,13 @@
         <v>1284</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
       <c r="D1027" s="8" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="E1027" s="8" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24606,13 +24542,13 @@
         <v>1285</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D1028" s="8" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="E1028" s="8" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24623,7 +24559,7 @@
         <v>1286</v>
       </c>
       <c r="C1029" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D1029" s="8" t="s">
         <v>116</v>
@@ -24640,7 +24576,7 @@
         <v>1287</v>
       </c>
       <c r="C1030" s="7" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D1030" s="8" t="s">
         <v>116</v>
@@ -24657,13 +24593,13 @@
         <v>1288</v>
       </c>
       <c r="C1031" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D1031" s="8" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="E1031" s="8" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24674,13 +24610,13 @@
         <v>1289</v>
       </c>
       <c r="C1032" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D1032" s="8" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E1032" s="8" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24711,10 +24647,10 @@
         <v>23</v>
       </c>
       <c r="D1034" s="8" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="E1034" s="8" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24725,13 +24661,13 @@
         <v>1292</v>
       </c>
       <c r="C1035" s="7" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D1035" s="8" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="E1035" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24742,7 +24678,7 @@
         <v>1293</v>
       </c>
       <c r="C1036" s="7" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="D1036" s="8" t="s">
         <v>56</v>
@@ -24759,13 +24695,13 @@
         <v>1294</v>
       </c>
       <c r="C1037" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D1037" s="8" t="s">
-        <v>253</v>
+        <v>56</v>
       </c>
       <c r="E1037" s="8" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24776,13 +24712,13 @@
         <v>1295</v>
       </c>
       <c r="C1038" s="7" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D1038" s="8" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
       <c r="E1038" s="8" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24793,13 +24729,13 @@
         <v>1296</v>
       </c>
       <c r="C1039" s="7" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D1039" s="8" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="E1039" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24810,7 +24746,7 @@
         <v>1297</v>
       </c>
       <c r="C1040" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D1040" s="8" t="s">
         <v>339</v>
@@ -24844,7 +24780,7 @@
         <v>1299</v>
       </c>
       <c r="C1042" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1042" s="8" t="s">
         <v>339</v>
@@ -24861,7 +24797,7 @@
         <v>1300</v>
       </c>
       <c r="C1043" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1043" s="8" t="s">
         <v>339</v>
@@ -24878,13 +24814,13 @@
         <v>1301</v>
       </c>
       <c r="C1044" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D1044" s="8" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="E1044" s="8" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24895,13 +24831,13 @@
         <v>1302</v>
       </c>
       <c r="C1045" s="7" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="D1045" s="8" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="E1045" s="8" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24912,7 +24848,7 @@
         <v>1303</v>
       </c>
       <c r="C1046" s="7" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="D1046" s="8" t="s">
         <v>339</v>
@@ -24929,7 +24865,7 @@
         <v>1304</v>
       </c>
       <c r="C1047" s="7" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D1047" s="8" t="s">
         <v>339</v>
@@ -24946,7 +24882,7 @@
         <v>1305</v>
       </c>
       <c r="C1048" s="7" t="s">
-        <v>1032</v>
+        <v>178</v>
       </c>
       <c r="D1048" s="8" t="s">
         <v>339</v>
@@ -24963,7 +24899,7 @@
         <v>1306</v>
       </c>
       <c r="C1049" s="7" t="s">
-        <v>31</v>
+        <v>1032</v>
       </c>
       <c r="D1049" s="8" t="s">
         <v>339</v>
@@ -24980,7 +24916,7 @@
         <v>1307</v>
       </c>
       <c r="C1050" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D1050" s="8" t="s">
         <v>339</v>
@@ -24997,7 +24933,7 @@
         <v>1308</v>
       </c>
       <c r="C1051" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D1051" s="8" t="s">
         <v>339</v>
@@ -25014,13 +24950,13 @@
         <v>1309</v>
       </c>
       <c r="C1052" s="7" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="D1052" s="8" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="E1052" s="8" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25031,13 +24967,13 @@
         <v>1310</v>
       </c>
       <c r="C1053" s="7" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="D1053" s="8" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="E1053" s="8" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25048,7 +24984,7 @@
         <v>1311</v>
       </c>
       <c r="C1054" s="7" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="D1054" s="8" t="s">
         <v>339</v>
@@ -25065,7 +25001,7 @@
         <v>1312</v>
       </c>
       <c r="C1055" s="7" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="D1055" s="8" t="s">
         <v>339</v>
@@ -25099,7 +25035,7 @@
         <v>1314</v>
       </c>
       <c r="C1057" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D1057" s="8" t="s">
         <v>339</v>
@@ -25116,13 +25052,13 @@
         <v>1315</v>
       </c>
       <c r="C1058" s="7" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D1058" s="8" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="E1058" s="8" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25133,13 +25069,13 @@
         <v>1316</v>
       </c>
       <c r="C1059" s="7" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="D1059" s="8" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="E1059" s="8" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25150,7 +25086,7 @@
         <v>1317</v>
       </c>
       <c r="C1060" s="7" t="s">
-        <v>1318</v>
+        <v>76</v>
       </c>
       <c r="D1060" s="8" t="s">
         <v>339</v>
@@ -25164,16 +25100,16 @@
         <v>1060</v>
       </c>
       <c r="B1061" s="10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1061" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="C1061" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="D1061" s="8" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="E1061" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25184,13 +25120,13 @@
         <v>1320</v>
       </c>
       <c r="C1062" s="7" t="s">
-        <v>23</v>
+        <v>532</v>
       </c>
       <c r="D1062" s="8" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="E1062" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25201,13 +25137,13 @@
         <v>1321</v>
       </c>
       <c r="C1063" s="7" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D1063" s="8" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="E1063" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25218,13 +25154,13 @@
         <v>1322</v>
       </c>
       <c r="C1064" s="7" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="D1064" s="8" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E1064" s="8" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25235,13 +25171,13 @@
         <v>1323</v>
       </c>
       <c r="C1065" s="7" t="s">
-        <v>7</v>
+        <v>247</v>
       </c>
       <c r="D1065" s="8" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="E1065" s="8" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25255,10 +25191,10 @@
         <v>7</v>
       </c>
       <c r="D1066" s="8" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="E1066" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25269,13 +25205,13 @@
         <v>1325</v>
       </c>
       <c r="C1067" s="7" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D1067" s="8" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="E1067" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25303,7 +25239,7 @@
         <v>1327</v>
       </c>
       <c r="C1069" s="7" t="s">
-        <v>1328</v>
+        <v>42</v>
       </c>
       <c r="D1069" s="8" t="s">
         <v>339</v>
@@ -25317,16 +25253,16 @@
         <v>1069</v>
       </c>
       <c r="B1070" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C1070" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="C1070" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="D1070" s="8" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="E1070" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25337,13 +25273,13 @@
         <v>1330</v>
       </c>
       <c r="C1071" s="7" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="D1071" s="8" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E1071" s="8" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25354,13 +25290,13 @@
         <v>1331</v>
       </c>
       <c r="C1072" s="7" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="D1072" s="8" t="s">
-        <v>339</v>
+        <v>116</v>
       </c>
       <c r="E1072" s="8" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25371,7 +25307,7 @@
         <v>1332</v>
       </c>
       <c r="C1073" s="7" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D1073" s="8" t="s">
         <v>339</v>
@@ -25388,7 +25324,7 @@
         <v>1333</v>
       </c>
       <c r="C1074" s="7" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="D1074" s="8" t="s">
         <v>339</v>
@@ -25405,14 +25341,18 @@
         <v>1334</v>
       </c>
       <c r="C1075" s="7" t="s">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="D1075" s="8" t="s">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="E1075" s="8" t="s">
-        <v>117</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F1075" s="0"/>
+      <c r="G1075" s="0"/>
+      <c r="H1075" s="0"/>
+      <c r="I1075" s="0"/>
     </row>
     <row r="1076" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="6" t="n">

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -4673,8 +4673,8 @@
   </sheetPr>
   <dimension ref="A1:N1221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1212" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10330,10 +10330,6 @@
       <c r="E246" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F246" s="0"/>
-      <c r="G246" s="0"/>
-      <c r="H246" s="0"/>
-      <c r="I246" s="0"/>
       <c r="J246" s="9"/>
       <c r="L246" s="9"/>
       <c r="M246" s="9"/>
@@ -10354,10 +10350,6 @@
       <c r="E247" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F247" s="0"/>
-      <c r="G247" s="0"/>
-      <c r="H247" s="0"/>
-      <c r="I247" s="0"/>
       <c r="J247" s="9"/>
       <c r="L247" s="9"/>
       <c r="M247" s="9"/>
@@ -12064,10 +12056,6 @@
       <c r="E326" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F326" s="0"/>
-      <c r="G326" s="0"/>
-      <c r="H326" s="0"/>
-      <c r="I326" s="0"/>
     </row>
     <row r="327" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="n">
@@ -12561,10 +12549,6 @@
       <c r="E355" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F355" s="0"/>
-      <c r="G355" s="0"/>
-      <c r="H355" s="0"/>
-      <c r="I355" s="0"/>
     </row>
     <row r="356" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="n">
@@ -12956,10 +12940,6 @@
       <c r="E378" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F378" s="0"/>
-      <c r="G378" s="0"/>
-      <c r="H378" s="0"/>
-      <c r="I378" s="0"/>
     </row>
     <row r="379" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="n">
@@ -13759,10 +13739,6 @@
       <c r="E425" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F425" s="0"/>
-      <c r="G425" s="0"/>
-      <c r="H425" s="0"/>
-      <c r="I425" s="0"/>
     </row>
     <row r="426" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="n">
@@ -15217,10 +15193,6 @@
       <c r="E510" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F510" s="0"/>
-      <c r="G510" s="0"/>
-      <c r="H510" s="0"/>
-      <c r="I510" s="0"/>
     </row>
     <row r="511" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6" t="n">
@@ -16282,10 +16254,6 @@
       <c r="E569" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F569" s="0"/>
-      <c r="G569" s="0"/>
-      <c r="H569" s="0"/>
-      <c r="I569" s="0"/>
     </row>
     <row r="570" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="6" t="n">
@@ -17488,10 +17456,6 @@
       <c r="E636" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F636" s="0"/>
-      <c r="G636" s="0"/>
-      <c r="H636" s="0"/>
-      <c r="I636" s="0"/>
     </row>
     <row r="637" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="6" t="n">
@@ -17563,10 +17527,6 @@
       <c r="E640" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F640" s="0"/>
-      <c r="G640" s="0"/>
-      <c r="H640" s="0"/>
-      <c r="I640" s="0"/>
     </row>
     <row r="641" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="6" t="n">
@@ -20515,10 +20475,6 @@
       <c r="E804" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F804" s="0"/>
-      <c r="G804" s="0"/>
-      <c r="H804" s="0"/>
-      <c r="I804" s="0"/>
     </row>
     <row r="805" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="6" t="n">
@@ -21614,10 +21570,6 @@
       <c r="E865" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F865" s="0"/>
-      <c r="G865" s="0"/>
-      <c r="H865" s="0"/>
-      <c r="I865" s="0"/>
     </row>
     <row r="866" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="6" t="n">
@@ -22516,10 +22468,6 @@
       <c r="E915" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F915" s="0"/>
-      <c r="G915" s="0"/>
-      <c r="H915" s="0"/>
-      <c r="I915" s="0"/>
     </row>
     <row r="916" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="6" t="n">
@@ -23527,10 +23475,6 @@
       <c r="E971" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F971" s="0"/>
-      <c r="G971" s="0"/>
-      <c r="H971" s="0"/>
-      <c r="I971" s="0"/>
     </row>
     <row r="972" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="6" t="n">
@@ -23980,10 +23924,6 @@
       <c r="E996" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F996" s="0"/>
-      <c r="G996" s="0"/>
-      <c r="H996" s="0"/>
-      <c r="I996" s="0"/>
     </row>
     <row r="997" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="6" t="n">
@@ -25349,10 +25289,6 @@
       <c r="E1075" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F1075" s="0"/>
-      <c r="G1075" s="0"/>
-      <c r="H1075" s="0"/>
-      <c r="I1075" s="0"/>
     </row>
     <row r="1076" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="6" t="n">

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Facning</t>
   </si>
   <si>
-    <t xml:space="preserve">KurierDPD</t>
+    <t xml:space="preserve">Kurwier</t>
   </si>
   <si>
     <t xml:space="preserve">fanatic1219</t>
@@ -4737,7 +4737,7 @@
   <dimension ref="A1:N1233"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5126,8 +5126,6 @@
       <c r="H15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
@@ -6608,8 +6606,6 @@
       <c r="E74" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G74" s="0"/>
-      <c r="H74" s="0"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="L74" s="9"/>

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Facning</t>
   </si>
   <si>
-    <t xml:space="preserve">Kurwier</t>
+    <t xml:space="preserve">KurierDPD</t>
   </si>
   <si>
     <t xml:space="preserve">fanatic1219</t>

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -1999,7 +1999,26 @@
     <t xml:space="preserve">JoJoMA</t>
   </si>
   <si>
-    <t xml:space="preserve">Tua_89</t>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tua_89 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(not eligible, multi-account)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">crukz</t>
@@ -4575,7 +4594,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4632,6 +4651,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4749,6 +4775,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4759,13 +4845,13 @@
   </sheetPr>
   <dimension ref="A1:N1247"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B419" activeCellId="0" sqref="B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.08"/>

--- a/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
+++ b/Players Fits and Nationalities/Database/Players Fits & Nationalities.xlsx
@@ -1789,7 +1789,7 @@
     <t xml:space="preserve">Salimen</t>
   </si>
   <si>
-    <t xml:space="preserve">gragasiktohul </t>
+    <t xml:space="preserve">gragasiktohul</t>
   </si>
   <si>
     <t xml:space="preserve">KevinOAO</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">LelouchFR</t>
   </si>
   <si>
-    <t xml:space="preserve">FEsteves </t>
+    <t xml:space="preserve">Festeves</t>
   </si>
   <si>
     <t xml:space="preserve">TheSpacemang</t>
@@ -4896,8 +4896,8 @@
   </sheetPr>
   <dimension ref="A1:N1256"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A994" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1002" activeCellId="0" sqref="D1002"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C178" activeCellId="0" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
